--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\Documents\GitHub\Personal\PagoExpensas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D447E0-B9D2-9640-87AF-63D2560E1814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6EE69-FBEB-4370-9ECC-71C9E2BBC10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22280" windowHeight="16280" firstSheet="11" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="11" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -617,9 +617,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1077,24 +1077,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1106,7 +1106,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,28 +1209,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1321,7 +1321,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1339,16 +1339,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1401,7 +1401,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1478,9 +1478,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1518,7 +1518,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1624,7 +1624,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1766,7 +1766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1783,21 +1783,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -1933,7 +1933,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -1973,7 +1973,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2013,7 +2013,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2053,7 +2053,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2097,7 +2097,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2141,7 +2141,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2185,7 +2185,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2229,7 +2229,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2318,7 +2318,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2362,7 +2362,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2407,7 +2407,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2452,7 +2452,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2497,7 +2497,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2592,7 +2592,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2642,7 +2642,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2690,7 +2690,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2738,7 +2738,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2784,7 +2784,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2830,7 +2830,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2876,7 +2876,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -2920,7 +2920,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -2964,7 +2964,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3009,7 +3009,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3054,7 +3054,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3099,7 +3099,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3143,7 +3143,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3187,7 +3187,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3232,7 +3232,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3277,7 +3277,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3310,7 +3310,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3340,7 +3340,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3360,7 +3360,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3380,7 +3380,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3398,7 +3398,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3416,7 +3416,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3432,7 +3432,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3448,7 +3448,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3464,7 +3464,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3480,7 +3480,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3496,7 +3496,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3512,7 +3512,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3528,7 +3528,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3544,7 +3544,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3560,7 +3560,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3576,7 +3576,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3592,7 +3592,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3621,22 +3621,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.1640625" style="31"/>
+    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3649,12 +3649,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3669,12 +3669,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3696,7 +3696,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3705,12 +3705,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3728,12 +3728,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>26</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3796,12 +3796,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>14</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3849,7 +3849,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3860,7 +3860,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3871,22 +3871,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3913,19 +3913,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3938,12 +3938,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3958,12 +3958,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3985,7 +3985,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3994,12 +3994,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4021,12 +4021,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>26</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4084,12 +4084,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>47</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4145,7 +4145,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4236,19 +4236,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4261,12 +4261,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4281,12 +4281,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4310,7 +4310,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4319,12 +4319,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4338,7 +4338,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4352,12 +4352,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>129</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4418,12 +4418,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>54</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4479,7 +4479,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4505,13 +4505,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4539,19 +4539,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4564,12 +4564,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4584,12 +4584,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4609,7 +4609,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4618,12 +4618,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4641,12 +4641,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>26</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4708,12 +4708,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>14</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4769,7 +4769,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4782,7 +4782,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4819,19 +4819,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4844,12 +4844,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4864,12 +4864,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4891,7 +4891,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4900,12 +4900,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4916,7 +4916,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4927,12 +4927,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>26</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4960,7 +4960,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>14</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5046,7 +5046,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5059,7 +5059,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5072,7 +5072,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5102,40 +5102,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="64"/>
+    <col min="24" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="119" t="s">
         <v>144</v>
       </c>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="W1" s="118"/>
     </row>
-    <row r="2" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>18040.12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5334,7 +5334,7 @@
         <v>18039.57</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5382,7 +5382,7 @@
         <v>18040.05</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5435,7 +5435,7 @@
         <v>70020.710000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5489,7 +5489,7 @@
         <v>63671.77</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>187812.22</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>37551.03</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5663,7 +5663,7 @@
         <v>39614.18</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5717,7 +5717,7 @@
         <v>37881.21</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>115046.41999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>136180.10999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>60000.11</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>100000.02</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6034,9 +6034,9 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>166</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>108354.91999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>31434.119999999959</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -6108,22 +6108,22 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6133,7 +6133,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:11" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
         <v>181</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6200,7 +6200,7 @@
       <c r="G4" s="95"/>
       <c r="I4" s="95"/>
     </row>
-    <row r="5" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6224,7 +6224,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6248,7 +6248,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6272,7 +6272,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6322,7 +6322,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6346,7 +6346,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="13" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6422,7 +6422,7 @@
         <v>45597</v>
       </c>
     </row>
-    <row r="14" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6446,7 +6446,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6470,7 +6470,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="K16" s="94"/>
     </row>
-    <row r="17" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="I17" s="95"/>
     </row>
-    <row r="18" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
         <v>170</v>
       </c>
@@ -6545,16 +6545,16 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6562,7 +6562,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="2:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -6580,7 +6580,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="G3" s="96"/>
     </row>
-    <row r="4" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6612,7 +6612,7 @@
       <c r="F4" s="100"/>
       <c r="G4" s="95"/>
     </row>
-    <row r="5" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="G5" s="95"/>
     </row>
-    <row r="6" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="G6" s="95"/>
     </row>
-    <row r="7" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G7" s="97"/>
     </row>
-    <row r="8" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6698,7 +6698,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6716,7 +6716,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="G11" s="95"/>
     </row>
-    <row r="12" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6772,7 +6772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6806,7 +6806,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="I16" s="94"/>
     </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="F17" s="103"/>
       <c r="G17" s="95"/>
     </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
         <v>170</v>
       </c>
@@ -6868,29 +6868,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="6" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -6969,7 +6969,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -6980,7 +6980,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -7002,7 +7002,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -7010,23 +7010,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -7046,17 +7046,17 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7066,8 +7066,8 @@
       <c r="C2" s="107"/>
       <c r="D2" s="108"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7079,8 +7079,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7088,33 +7088,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>26</v>
       </c>
@@ -7122,7 +7122,7 @@
       <c r="C13" s="112"/>
       <c r="D13" s="113"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7164,8 +7164,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>83</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="C19" s="115"/>
       <c r="D19" s="116"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -7213,7 +7213,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="114" t="s">
         <v>100</v>
       </c>
@@ -7239,7 +7239,7 @@
       <c r="C26" s="115"/>
       <c r="D26" s="116"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7318,18 +7318,18 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7339,8 +7339,8 @@
       <c r="C2" s="107"/>
       <c r="D2" s="108"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7352,8 +7352,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7363,33 +7363,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>26</v>
       </c>
@@ -7397,7 +7397,7 @@
       <c r="C13" s="112"/>
       <c r="D13" s="113"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7419,7 +7419,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7429,7 +7429,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7439,8 +7439,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>83</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="C19" s="115"/>
       <c r="D19" s="116"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7494,7 +7494,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7502,7 +7502,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="114" t="s">
         <v>100</v>
       </c>
@@ -7510,7 +7510,7 @@
       <c r="C26" s="115"/>
       <c r="D26" s="116"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7589,17 +7589,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7609,8 +7609,8 @@
       <c r="C2" s="107"/>
       <c r="D2" s="108"/>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7622,8 +7622,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7631,33 +7631,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>99</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7688,7 +7688,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7698,7 +7698,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7706,8 +7706,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>83</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="C19" s="115"/>
       <c r="D19" s="116"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7761,7 +7761,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="114" t="s">
         <v>100</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="C26" s="115"/>
       <c r="D26" s="116"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7803,7 +7803,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -7876,20 +7876,20 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7907,7 +7907,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -7917,7 +7917,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -7947,7 +7947,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7963,7 +7963,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -7978,7 +7978,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -7992,7 +7992,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8020,13 +8020,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>99</v>
       </c>
@@ -8038,7 +8038,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8054,7 +8054,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8068,7 +8068,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8082,7 +8082,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8093,13 +8093,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>83</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8145,7 +8145,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8159,7 +8159,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8182,10 +8182,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="114" t="s">
         <v>100</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="D26" s="116"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8233,7 +8233,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8244,7 +8244,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8281,19 +8281,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8307,13 +8307,13 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8329,13 +8329,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8347,7 +8347,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8357,7 +8357,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8367,13 +8367,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8383,7 +8383,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8393,13 +8393,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>99</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8437,7 +8437,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8449,7 +8449,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8460,13 +8460,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>83</v>
       </c>
@@ -8478,7 +8478,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8512,7 +8512,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8526,7 +8526,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8549,10 +8549,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="114" t="s">
         <v>100</v>
       </c>
@@ -8561,7 +8561,7 @@
       <c r="D26" s="116"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8572,7 +8572,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8585,7 +8585,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8596,7 +8596,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8642,17 +8642,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8662,8 +8662,8 @@
       <c r="C2" s="107"/>
       <c r="D2" s="108"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8675,8 +8675,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8684,33 +8684,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>99</v>
       </c>
@@ -8718,7 +8718,7 @@
       <c r="C13" s="112"/>
       <c r="D13" s="113"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8744,7 +8744,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8754,8 +8754,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>83</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="C19" s="115"/>
       <c r="D19" s="116"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8809,7 +8809,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8817,7 +8817,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="114" t="s">
         <v>100</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="C26" s="115"/>
       <c r="D26" s="116"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8865,7 +8865,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8902,19 +8902,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8927,12 +8927,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8947,12 +8947,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8965,7 +8965,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -8976,7 +8976,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8985,12 +8985,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9012,12 +9012,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>26</v>
       </c>
@@ -9028,7 +9028,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9043,7 +9043,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9056,7 +9056,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9080,12 +9080,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
         <v>14</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -9113,7 +9113,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9130,7 +9130,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -9141,7 +9141,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9163,22 +9163,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\Documents\GitHub\Personal\PagoExpensas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6EE69-FBEB-4370-9ECC-71C9E2BBC10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3CBB8F-3281-4DE6-86D5-6B67A77AEFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="11" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="182">
   <si>
     <t>Fotographos</t>
   </si>
@@ -5100,11 +5100,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5132,10 +5132,12 @@
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
     <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="64"/>
+    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="119" t="s">
         <v>144</v>
       </c>
@@ -5172,8 +5174,12 @@
         <v>45383</v>
       </c>
       <c r="W1" s="118"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X1" s="117">
+        <v>45413</v>
+      </c>
+      <c r="Y1" s="118"/>
+    </row>
+    <row r="2" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5234,8 +5240,14 @@
       <c r="W2" s="80" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5285,8 +5297,12 @@
       <c r="W3" s="82">
         <v>18040.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82">
+        <v>19504.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5333,8 +5349,12 @@
       <c r="W4" s="84">
         <v>18039.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="83"/>
+      <c r="Y4" s="84">
+        <v>19503.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5381,8 +5401,12 @@
       <c r="W5" s="84">
         <v>18040.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="83"/>
+      <c r="Y5" s="84">
+        <v>19504.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5434,8 +5458,12 @@
       <c r="W6" s="84">
         <v>70020.710000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X6" s="83"/>
+      <c r="Y6" s="84">
+        <v>90072.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5488,8 +5516,12 @@
       <c r="W7" s="86">
         <v>63671.77</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X7" s="85"/>
+      <c r="Y7" s="86">
+        <v>81897.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5558,8 +5590,13 @@
         <f>SUM(V3:W7)</f>
         <v>187812.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="87"/>
+      <c r="Y8" s="88">
+        <f>SUM(X3:Y7)</f>
+        <v>230482.22000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5609,8 +5646,12 @@
       <c r="W9" s="82">
         <v>37551.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="81"/>
+      <c r="Y9" s="82">
+        <v>42101.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5662,8 +5703,12 @@
       <c r="W10" s="84">
         <v>39614.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X10" s="83"/>
+      <c r="Y10" s="84">
+        <v>44414.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5716,8 +5761,12 @@
       <c r="W11" s="86">
         <v>37881.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X11" s="85"/>
+      <c r="Y11" s="86">
+        <v>42471.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5786,8 +5835,13 @@
         <f>SUM(W9:W11)</f>
         <v>115046.41999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X12" s="87"/>
+      <c r="Y12" s="88">
+        <f>SUM(Y9:Y11)</f>
+        <v>128986.41999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -5853,8 +5907,10 @@
       <c r="W13" s="93">
         <v>136180.10999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X13" s="89"/>
+      <c r="Y13" s="93"/>
+    </row>
+    <row r="14" spans="1:25" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -5916,8 +5972,10 @@
       <c r="W14" s="93">
         <v>60000.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X14" s="89"/>
+      <c r="Y14" s="93"/>
+    </row>
+    <row r="15" spans="1:25" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -5979,8 +6037,10 @@
       <c r="W15" s="90">
         <v>100000.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="89"/>
+      <c r="Y15" s="90"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6009,9 +6069,14 @@
         <f>W15+W14+W13+W12+W8</f>
         <v>599038.88</v>
       </c>
+      <c r="Y16" s="92">
+        <f>Y15+Y14+Y13+Y12+Y8</f>
+        <v>359468.64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="R1:S1"/>
@@ -6883,7 +6948,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45393</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\Documents\GitHub\Personal\PagoExpensas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3CBB8F-3281-4DE6-86D5-6B67A77AEFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480D947-0212-42D6-802F-22EE113C5047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="11" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="11" activeTab="16" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -5102,7 +5102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
@@ -6076,16 +6076,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6172,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F33156-2118-7347-88EF-33566C005459}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45415</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\Documents\GitHub\Personal\PagoExpensas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480D947-0212-42D6-802F-22EE113C5047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{0480D947-0212-42D6-802F-22EE113C5047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A997A5-2BAB-4F83-99F8-A9D0ED4BA2F8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="11" activeTab="16" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="30060" yWindow="210" windowWidth="21600" windowHeight="14865" tabRatio="535" firstSheet="11" activeTab="16" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="183">
   <si>
     <t>Fotographos</t>
   </si>
@@ -610,6 +610,9 @@
   </si>
   <si>
     <t>Direccion</t>
+  </si>
+  <si>
+    <t>Actu</t>
   </si>
 </sst>
 </file>
@@ -617,9 +620,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1077,24 +1080,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1106,7 +1109,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,28 +1212,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1321,7 +1324,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1339,16 +1342,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1401,7 +1404,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1477,10 +1480,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1518,7 +1525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1624,7 +1631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1766,7 +1773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1783,7 +1790,7 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
@@ -3621,7 +3628,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -3913,7 +3920,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4236,7 +4243,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4539,7 +4546,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4819,7 +4826,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -5100,14 +5107,14 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="topRight" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
@@ -5134,10 +5141,12 @@
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
     <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="16384" width="10.875" style="64"/>
+    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
+    <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
+    <col min="28" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="119" t="s">
         <v>144</v>
       </c>
@@ -5178,8 +5187,12 @@
         <v>45413</v>
       </c>
       <c r="Y1" s="118"/>
-    </row>
-    <row r="2" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z1" s="117">
+        <v>45444</v>
+      </c>
+      <c r="AA1" s="118"/>
+    </row>
+    <row r="2" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5246,8 +5259,14 @@
       <c r="Y2" s="80" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA2" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5301,8 +5320,10 @@
       <c r="Y3" s="82">
         <v>19504.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="82"/>
+    </row>
+    <row r="4" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5353,8 +5374,10 @@
       <c r="Y4" s="84">
         <v>19503.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="84"/>
+    </row>
+    <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5405,8 +5428,10 @@
       <c r="Y5" s="84">
         <v>19504.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="84"/>
+    </row>
+    <row r="6" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5462,8 +5487,10 @@
       <c r="Y6" s="84">
         <v>90072.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="84"/>
+    </row>
+    <row r="7" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5520,8 +5547,10 @@
       <c r="Y7" s="86">
         <v>81897.77</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="86"/>
+    </row>
+    <row r="8" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5585,18 +5614,29 @@
         <f>SUM(T3:U7)</f>
         <v>154888.22</v>
       </c>
-      <c r="V8" s="87"/>
+      <c r="V8" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="W8" s="88">
         <f>SUM(V3:W7)</f>
         <v>187812.22</v>
       </c>
-      <c r="X8" s="87"/>
+      <c r="X8" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="Y8" s="88">
         <f>SUM(X3:Y7)</f>
         <v>230482.22000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA8" s="88">
+        <f>SUM(Z3:AA7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5650,8 +5690,10 @@
       <c r="Y9" s="82">
         <v>42101.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="82"/>
+    </row>
+    <row r="10" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5707,8 +5749,10 @@
       <c r="Y10" s="84">
         <v>44414.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="84"/>
+    </row>
+    <row r="11" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5765,8 +5809,10 @@
       <c r="Y11" s="86">
         <v>42471.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="86"/>
+    </row>
+    <row r="12" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5830,18 +5876,29 @@
         <f>SUM(U9:U11)</f>
         <v>87166.42</v>
       </c>
-      <c r="V12" s="87"/>
+      <c r="V12" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="W12" s="88">
         <f>SUM(W9:W11)</f>
         <v>115046.41999999998</v>
       </c>
-      <c r="X12" s="87"/>
+      <c r="X12" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="Y12" s="88">
         <f>SUM(Y9:Y11)</f>
         <v>128986.41999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z12" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA12" s="88">
+        <f>SUM(AA9:AA11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -5903,14 +5960,24 @@
       <c r="U13" s="93">
         <v>112069.11</v>
       </c>
-      <c r="V13" s="89"/>
+      <c r="V13" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="W13" s="93">
         <v>136180.10999999999</v>
       </c>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="93"/>
-    </row>
-    <row r="14" spans="1:25" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X13" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" s="93">
+        <v>272360.11</v>
+      </c>
+      <c r="Z13" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA13" s="93"/>
+    </row>
+    <row r="14" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -5968,14 +6035,24 @@
       <c r="U14" s="93">
         <v>54800</v>
       </c>
-      <c r="V14" s="89"/>
+      <c r="V14" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="W14" s="93">
         <v>60000.11</v>
       </c>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="93"/>
-    </row>
-    <row r="15" spans="1:25" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X14" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" s="93">
+        <v>68000.11</v>
+      </c>
+      <c r="Z14" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA14" s="93"/>
+    </row>
+    <row r="15" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6033,14 +6110,24 @@
       <c r="U15" s="90">
         <v>86917.02</v>
       </c>
-      <c r="V15" s="89"/>
+      <c r="V15" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="W15" s="90">
         <v>100000.02</v>
       </c>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="90"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X15" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" s="90">
+        <v>150000.01999999999</v>
+      </c>
+      <c r="Z15" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA15" s="90"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6071,21 +6158,26 @@
       </c>
       <c r="Y16" s="92">
         <f>Y15+Y14+Y13+Y12+Y8</f>
-        <v>359468.64</v>
+        <v>849828.87999999989</v>
+      </c>
+      <c r="AA16" s="92">
+        <f>AA15+AA14+AA13+AA12+AA8</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6099,7 +6191,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -6170,13 +6262,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F33156-2118-7347-88EF-33566C005459}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -6186,9 +6278,13 @@
     <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6198,7 +6294,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
         <v>181</v>
       </c>
@@ -6224,7 +6320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6249,8 +6345,11 @@
       <c r="I3" s="96">
         <v>45505</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6264,8 +6363,16 @@
       <c r="F4" s="100"/>
       <c r="G4" s="95"/>
       <c r="I4" s="95"/>
-    </row>
-    <row r="5" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="65" t="str">
+        <f t="shared" ref="K4:K7" si="0">+_xlfn.CONCAT("'",E4,"      ",$B$3,"   UF-",C4,"  ",D4,"\n'")</f>
+        <v>'2      Suipacha 211   UF-57  Coch -3\n'</v>
+      </c>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+    </row>
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6288,8 +6395,16 @@
       <c r="I5" s="95">
         <v>45505</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>'3      Suipacha 211   UF-105  Coch -2\n'</v>
+      </c>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+    </row>
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6312,8 +6427,16 @@
       <c r="I6" s="95">
         <v>45505</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>'4      Suipacha 211   UF-271  7 b\n'</v>
+      </c>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+    </row>
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6336,8 +6459,16 @@
       <c r="I7" s="97">
         <v>45383</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>'5      Suipacha 211   UF-277  8 i\n'</v>
+      </c>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+    </row>
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6362,8 +6493,16 @@
       <c r="I8" s="96">
         <v>45505</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="65" t="str">
+        <f>+_xlfn.CONCAT("'",E8,"      ",$B$8,"   UF-",C8,"  ",D8,"\n'")</f>
+        <v>'6      Suipacha 644   UF-3  PB D\n'</v>
+      </c>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+    </row>
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6386,8 +6525,16 @@
       <c r="I9" s="95">
         <v>45689</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="65" t="str">
+        <f t="shared" ref="K9:K10" si="1">+_xlfn.CONCAT("'",E9,"      ",$B$8,"   UF-",C9,"  ",D9,"\n'")</f>
+        <v>'7      Suipacha 644   UF-18  4 c\n'</v>
+      </c>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+    </row>
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6410,8 +6557,16 @@
       <c r="I10" s="97">
         <v>45566</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>'8      Suipacha 644   UF-21  5 d\n'</v>
+      </c>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+    </row>
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6436,8 +6591,16 @@
       <c r="I11" s="95">
         <v>45505</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="65" t="str">
+        <f>+_xlfn.CONCAT("'",E11,"      ",$B$11,"   UF-",C11,"  ",D11,"\n'")</f>
+        <v>'9      San Martin   UF-Pelotero  PT\n'</v>
+      </c>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+    </row>
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6462,8 +6625,16 @@
       <c r="I12" s="96">
         <v>45444</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="65" t="str">
+        <f>+_xlfn.CONCAT("'",E12,"      ",$B$12,"   UF-",C12,"  ",D12,"\n'")</f>
+        <v>'10      Alem   UF-Gringo  PT\n'</v>
+      </c>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+    </row>
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6486,8 +6657,16 @@
       <c r="I13" s="95">
         <v>45597</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="65" t="str">
+        <f t="shared" ref="K13:K16" si="2">+_xlfn.CONCAT("'",E13,"      ",$B$12,"   UF-",C13,"  ",D13,"\n'")</f>
+        <v>'11      Alem   UF-Local  PT\n'</v>
+      </c>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+    </row>
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6510,8 +6689,16 @@
       <c r="I14" s="95">
         <v>45748</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>'12      Alem   UF-Depto  PT\n'</v>
+      </c>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+    </row>
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6534,8 +6721,16 @@
       <c r="I15" s="95">
         <v>45505</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>'13      Alem   UF-Esquina  PT\n'</v>
+      </c>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+    </row>
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6558,9 +6753,16 @@
       <c r="I16" s="97">
         <v>45505</v>
       </c>
-      <c r="K16" s="94"/>
-    </row>
-    <row r="17" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>'14      Alem   UF-Anexo  PT\n'</v>
+      </c>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+    </row>
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6580,8 +6782,16 @@
         <v>45352</v>
       </c>
       <c r="I17" s="95"/>
-    </row>
-    <row r="18" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="65" t="str">
+        <f>+_xlfn.CONCAT("'",E17,"      ",$B$17,"   UF-",C17,"  ",D17,"\n'")</f>
+        <v>'15      Moyano   UF-Local  RT\n'</v>
+      </c>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+    </row>
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
         <v>170</v>
       </c>
@@ -6598,7 +6808,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6610,7 +6820,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -6933,7 +7143,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
@@ -6948,7 +7158,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45419</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7111,7 +7321,7 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -7383,7 +7593,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -7654,7 +7864,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -7941,7 +8151,7 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8346,7 +8556,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8707,7 +8917,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8967,7 +9177,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{0480D947-0212-42D6-802F-22EE113C5047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A997A5-2BAB-4F83-99F8-A9D0ED4BA2F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018CE86A-0F02-5147-8E2D-6D9B1FA64FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="210" windowWidth="21600" windowHeight="14865" tabRatio="535" firstSheet="11" activeTab="16" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="535" firstSheet="5" activeTab="13" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="185">
   <si>
     <t>Fotographos</t>
   </si>
@@ -612,14 +612,21 @@
     <t>Direccion</t>
   </si>
   <si>
-    <t>Actu</t>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Expensas</t>
+  </si>
+  <si>
+    <t>Agua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="mmm\ yy"/>
@@ -1078,12 +1085,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1360,6 +1368,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,8 +1413,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1478,10 +1489,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1790,21 +1797,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="16.375" customWidth="1"/>
-    <col min="17" max="17" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1818,7 +1825,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1858,7 +1865,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +1907,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -1940,7 +1947,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -1980,7 +1987,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2020,7 +2027,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2060,7 +2067,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2104,7 +2111,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2148,7 +2155,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2192,7 +2199,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2236,7 +2243,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2281,7 +2288,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2325,7 +2332,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2369,7 +2376,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2414,7 +2421,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2459,7 +2466,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2504,7 +2511,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2549,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2599,7 +2606,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2649,7 +2656,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2697,7 +2704,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2745,7 +2752,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2791,7 +2798,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2837,7 +2844,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2883,7 +2890,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -2927,7 +2934,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -2971,7 +2978,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3016,7 +3023,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3061,7 +3068,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3106,7 +3113,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3150,7 +3157,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3194,7 +3201,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3239,7 +3246,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3284,7 +3291,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3317,7 +3324,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3347,7 +3354,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3367,7 +3374,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3387,7 +3394,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3405,7 +3412,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3423,7 +3430,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3439,7 +3446,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3455,7 +3462,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3471,7 +3478,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3487,7 +3494,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3503,7 +3510,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3519,7 +3526,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3535,7 +3542,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3551,7 +3558,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3567,7 +3574,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3583,7 +3590,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3599,7 +3606,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3624,51 +3631,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA63BDC-C60A-8F4D-AF60-378E553DA6A4}">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.125" style="31"/>
+    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -3676,12 +3683,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3694,7 +3701,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3703,7 +3710,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3712,12 +3719,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3726,7 +3733,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3735,23 +3742,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3768,7 +3775,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3781,7 +3788,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3792,7 +3799,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3803,23 +3810,23 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3836,7 +3843,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3847,7 +3854,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3856,7 +3863,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3867,7 +3874,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3878,22 +3885,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3920,44 +3927,44 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -3965,12 +3972,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3983,7 +3990,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3992,7 +3999,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4001,12 +4008,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4017,7 +4024,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4028,23 +4035,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4061,7 +4068,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4072,7 +4079,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4083,7 +4090,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4091,23 +4098,23 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4124,7 +4131,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4141,7 +4148,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4152,7 +4159,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4163,7 +4170,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4175,7 +4182,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4187,7 +4194,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4195,7 +4202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4203,7 +4210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4243,44 +4250,44 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4288,12 +4295,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4306,7 +4313,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4317,7 +4324,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4326,12 +4333,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4345,7 +4352,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4359,23 +4366,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4392,7 +4399,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4403,7 +4410,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4414,7 +4421,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4425,23 +4432,23 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4458,7 +4465,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4475,7 +4482,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4486,7 +4493,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4499,7 +4506,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4512,13 +4519,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4546,44 +4553,44 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4591,12 +4598,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4607,7 +4614,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4616,7 +4623,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4625,12 +4632,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4639,7 +4646,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4648,23 +4655,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4681,7 +4688,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4692,7 +4699,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4705,7 +4712,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4715,23 +4722,23 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4748,7 +4755,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4765,7 +4772,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4776,7 +4783,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4789,7 +4796,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4822,48 +4829,48 @@
   </sheetPr>
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>67</v>
       </c>
@@ -4871,12 +4878,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4889,7 +4896,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4898,7 +4905,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4907,12 +4914,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4923,7 +4930,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4934,23 +4941,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4967,7 +4974,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4978,7 +4985,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4991,7 +4998,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -5003,23 +5010,23 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5036,7 +5043,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5053,7 +5060,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5066,7 +5073,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5079,7 +5086,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5114,85 +5121,85 @@
       <selection pane="topRight" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="64" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="64"/>
+    <col min="28" max="16384" width="10.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="119" t="s">
+    <row r="1" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="117">
+      <c r="G1" s="120"/>
+      <c r="H1" s="119">
         <v>45170</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="117">
+      <c r="I1" s="120"/>
+      <c r="J1" s="119">
         <v>45200</v>
       </c>
-      <c r="K1" s="118"/>
-      <c r="L1" s="117">
+      <c r="K1" s="120"/>
+      <c r="L1" s="119">
         <v>45231</v>
       </c>
-      <c r="M1" s="118"/>
-      <c r="N1" s="117">
+      <c r="M1" s="120"/>
+      <c r="N1" s="119">
         <v>45261</v>
       </c>
-      <c r="O1" s="118"/>
-      <c r="P1" s="117">
+      <c r="O1" s="120"/>
+      <c r="P1" s="119">
         <v>45292</v>
       </c>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="117">
+      <c r="Q1" s="120"/>
+      <c r="R1" s="119">
         <v>45323</v>
       </c>
-      <c r="S1" s="118"/>
-      <c r="T1" s="117">
+      <c r="S1" s="120"/>
+      <c r="T1" s="119">
         <v>45352</v>
       </c>
-      <c r="U1" s="118"/>
-      <c r="V1" s="117">
+      <c r="U1" s="120"/>
+      <c r="V1" s="119">
         <v>45383</v>
       </c>
-      <c r="W1" s="118"/>
-      <c r="X1" s="117">
+      <c r="W1" s="120"/>
+      <c r="X1" s="119">
         <v>45413</v>
       </c>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="117">
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="119">
         <v>45444</v>
       </c>
-      <c r="AA1" s="118"/>
-    </row>
-    <row r="2" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA1" s="120"/>
+    </row>
+    <row r="2" spans="1:27" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5266,7 +5273,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5323,7 +5330,7 @@
       <c r="Z3" s="81"/>
       <c r="AA3" s="82"/>
     </row>
-    <row r="4" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5377,7 +5384,7 @@
       <c r="Z4" s="83"/>
       <c r="AA4" s="84"/>
     </row>
-    <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5431,7 +5438,7 @@
       <c r="Z5" s="83"/>
       <c r="AA5" s="84"/>
     </row>
-    <row r="6" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5490,7 +5497,7 @@
       <c r="Z6" s="83"/>
       <c r="AA6" s="84"/>
     </row>
-    <row r="7" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5550,7 +5557,7 @@
       <c r="Z7" s="85"/>
       <c r="AA7" s="86"/>
     </row>
-    <row r="8" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5636,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5693,7 +5700,7 @@
       <c r="Z9" s="81"/>
       <c r="AA9" s="82"/>
     </row>
-    <row r="10" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5752,7 +5759,7 @@
       <c r="Z10" s="83"/>
       <c r="AA10" s="84"/>
     </row>
-    <row r="11" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5812,7 +5819,7 @@
       <c r="Z11" s="85"/>
       <c r="AA11" s="86"/>
     </row>
-    <row r="12" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -5977,7 +5984,7 @@
       </c>
       <c r="AA13" s="93"/>
     </row>
-    <row r="14" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6052,7 +6059,7 @@
       </c>
       <c r="AA14" s="93"/>
     </row>
-    <row r="15" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6127,7 +6134,7 @@
       </c>
       <c r="AA15" s="90"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6167,17 +6174,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6191,9 +6198,9 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>166</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -6216,7 +6223,7 @@
         <v>108354.91999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -6240,7 +6247,7 @@
         <v>31434.119999999959</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -6262,29 +6269,29 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F33156-2118-7347-88EF-33566C005459}">
-  <dimension ref="B1:Q18"/>
+  <dimension ref="B1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6294,7 +6301,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98" t="s">
         <v>181</v>
       </c>
@@ -6320,7 +6327,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6349,7 +6356,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6363,16 +6370,12 @@
       <c r="F4" s="100"/>
       <c r="G4" s="95"/>
       <c r="I4" s="95"/>
-      <c r="K4" s="65" t="str">
-        <f t="shared" ref="K4:K7" si="0">+_xlfn.CONCAT("'",E4,"      ",$B$3,"   UF-",C4,"  ",D4,"\n'")</f>
-        <v>'2      Suipacha 211   UF-57  Coch -3\n'</v>
-      </c>
       <c r="N4" s="100"/>
       <c r="O4" s="100"/>
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6394,17 +6397,13 @@
       </c>
       <c r="I5" s="95">
         <v>45505</v>
-      </c>
-      <c r="K5" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v>'3      Suipacha 211   UF-105  Coch -2\n'</v>
       </c>
       <c r="N5" s="100"/>
       <c r="O5" s="100"/>
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6426,17 +6425,13 @@
       </c>
       <c r="I6" s="95">
         <v>45505</v>
-      </c>
-      <c r="K6" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v>'4      Suipacha 211   UF-271  7 b\n'</v>
       </c>
       <c r="N6" s="100"/>
       <c r="O6" s="100"/>
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6458,17 +6453,13 @@
       </c>
       <c r="I7" s="97">
         <v>45383</v>
-      </c>
-      <c r="K7" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v>'5      Suipacha 211   UF-277  8 i\n'</v>
       </c>
       <c r="N7" s="100"/>
       <c r="O7" s="100"/>
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6492,17 +6483,13 @@
       </c>
       <c r="I8" s="96">
         <v>45505</v>
-      </c>
-      <c r="K8" s="65" t="str">
-        <f>+_xlfn.CONCAT("'",E8,"      ",$B$8,"   UF-",C8,"  ",D8,"\n'")</f>
-        <v>'6      Suipacha 644   UF-3  PB D\n'</v>
       </c>
       <c r="N8" s="100"/>
       <c r="O8" s="100"/>
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6524,17 +6511,13 @@
       </c>
       <c r="I9" s="95">
         <v>45689</v>
-      </c>
-      <c r="K9" s="65" t="str">
-        <f t="shared" ref="K9:K10" si="1">+_xlfn.CONCAT("'",E9,"      ",$B$8,"   UF-",C9,"  ",D9,"\n'")</f>
-        <v>'7      Suipacha 644   UF-18  4 c\n'</v>
       </c>
       <c r="N9" s="100"/>
       <c r="O9" s="100"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6556,17 +6539,13 @@
       </c>
       <c r="I10" s="97">
         <v>45566</v>
-      </c>
-      <c r="K10" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>'8      Suipacha 644   UF-21  5 d\n'</v>
       </c>
       <c r="N10" s="100"/>
       <c r="O10" s="100"/>
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6590,17 +6569,13 @@
       </c>
       <c r="I11" s="95">
         <v>45505</v>
-      </c>
-      <c r="K11" s="65" t="str">
-        <f>+_xlfn.CONCAT("'",E11,"      ",$B$11,"   UF-",C11,"  ",D11,"\n'")</f>
-        <v>'9      San Martin   UF-Pelotero  PT\n'</v>
       </c>
       <c r="N11" s="100"/>
       <c r="O11" s="100"/>
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6624,17 +6599,13 @@
       </c>
       <c r="I12" s="96">
         <v>45444</v>
-      </c>
-      <c r="K12" s="65" t="str">
-        <f>+_xlfn.CONCAT("'",E12,"      ",$B$12,"   UF-",C12,"  ",D12,"\n'")</f>
-        <v>'10      Alem   UF-Gringo  PT\n'</v>
       </c>
       <c r="N12" s="100"/>
       <c r="O12" s="100"/>
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6656,17 +6627,13 @@
       </c>
       <c r="I13" s="95">
         <v>45597</v>
-      </c>
-      <c r="K13" s="65" t="str">
-        <f t="shared" ref="K13:K16" si="2">+_xlfn.CONCAT("'",E13,"      ",$B$12,"   UF-",C13,"  ",D13,"\n'")</f>
-        <v>'11      Alem   UF-Local  PT\n'</v>
       </c>
       <c r="N13" s="100"/>
       <c r="O13" s="100"/>
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6688,17 +6655,13 @@
       </c>
       <c r="I14" s="95">
         <v>45748</v>
-      </c>
-      <c r="K14" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>'12      Alem   UF-Depto  PT\n'</v>
       </c>
       <c r="N14" s="100"/>
       <c r="O14" s="100"/>
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6720,17 +6683,13 @@
       </c>
       <c r="I15" s="95">
         <v>45505</v>
-      </c>
-      <c r="K15" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>'13      Alem   UF-Esquina  PT\n'</v>
       </c>
       <c r="N15" s="100"/>
       <c r="O15" s="100"/>
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6752,17 +6711,13 @@
       </c>
       <c r="I16" s="97">
         <v>45505</v>
-      </c>
-      <c r="K16" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>'14      Alem   UF-Anexo  PT\n'</v>
       </c>
       <c r="N16" s="100"/>
       <c r="O16" s="100"/>
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6782,16 +6737,12 @@
         <v>45352</v>
       </c>
       <c r="I17" s="95"/>
-      <c r="K17" s="65" t="str">
-        <f>+_xlfn.CONCAT("'",E17,"      ",$B$17,"   UF-",C17,"  ",D17,"\n'")</f>
-        <v>'15      Moyano   UF-Local  RT\n'</v>
-      </c>
       <c r="N17" s="100"/>
       <c r="O17" s="100"/>
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
         <v>170</v>
       </c>
@@ -6805,6 +6756,57 @@
       <c r="G18" s="96"/>
       <c r="H18" s="70"/>
       <c r="I18" s="96"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="106">
+        <f>F7</f>
+        <v>267000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="106">
+        <f>+Expensas!Y7</f>
+        <v>81897.77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="106">
+        <v>783.84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="106">
+        <v>15649.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="106">
+        <v>21866.68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="107">
+        <f>SUM(C22:C26)</f>
+        <v>387198.19000000006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6820,16 +6822,16 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6837,7 +6839,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="2:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -6855,7 +6857,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6873,7 +6875,7 @@
       </c>
       <c r="G3" s="96"/>
     </row>
-    <row r="4" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6887,7 +6889,7 @@
       <c r="F4" s="100"/>
       <c r="G4" s="95"/>
     </row>
-    <row r="5" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6903,7 +6905,7 @@
       </c>
       <c r="G5" s="95"/>
     </row>
-    <row r="6" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6919,7 +6921,7 @@
       </c>
       <c r="G6" s="95"/>
     </row>
-    <row r="7" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6935,7 +6937,7 @@
       </c>
       <c r="G7" s="97"/>
     </row>
-    <row r="8" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6955,7 +6957,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6973,7 +6975,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6991,7 +6993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -7009,7 +7011,7 @@
       </c>
       <c r="G11" s="95"/>
     </row>
-    <row r="12" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7047,7 +7049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7063,7 +7065,7 @@
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7081,7 +7083,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7100,7 +7102,7 @@
       </c>
       <c r="I16" s="94"/>
     </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7116,7 +7118,7 @@
       <c r="F17" s="103"/>
       <c r="G17" s="95"/>
     </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
         <v>170</v>
       </c>
@@ -7143,29 +7145,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="8"/>
+    <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -7182,7 +7184,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -7214,7 +7216,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -7222,7 +7224,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -7233,7 +7235,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -7244,7 +7246,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -7255,7 +7257,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -7266,7 +7268,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -7277,7 +7279,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -7285,23 +7287,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -7321,41 +7323,41 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+    </row>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7363,41 +7365,41 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-    </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+    </row>
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7409,7 +7411,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7417,7 +7419,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7427,7 +7429,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7439,16 +7441,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+    </row>
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7462,7 +7464,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -7488,7 +7490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7498,7 +7500,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7506,15 +7508,15 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="114" t="s">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7524,7 +7526,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7536,7 +7538,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7546,7 +7548,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7556,7 +7558,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7593,42 +7595,42 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+    </row>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7638,41 +7640,41 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-    </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+    </row>
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7684,7 +7686,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7694,7 +7696,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7704,7 +7706,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7714,16 +7716,16 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+    </row>
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7737,7 +7739,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7749,7 +7751,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7759,7 +7761,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7769,7 +7771,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7777,15 +7779,15 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="114" t="s">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7795,7 +7797,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7807,7 +7809,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7817,7 +7819,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7827,7 +7829,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7864,41 +7866,41 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7906,44 +7908,44 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7955,7 +7957,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7963,7 +7965,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7973,7 +7975,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7981,16 +7983,16 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+    </row>
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8004,7 +8006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8016,7 +8018,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8026,7 +8028,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8036,7 +8038,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8044,15 +8046,15 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="114" t="s">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8066,7 +8068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8078,7 +8080,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8088,7 +8090,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8098,7 +8100,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -8112,7 +8114,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -8151,28 +8153,28 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.125" style="31"/>
+    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="F2" s="56" t="s">
         <v>125</v>
       </c>
@@ -8182,7 +8184,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -8192,14 +8194,14 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8212,7 +8214,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -8222,7 +8224,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8238,7 +8240,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8253,7 +8255,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8267,7 +8269,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -8278,7 +8280,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8286,7 +8288,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8295,25 +8297,25 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8329,7 +8331,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8343,7 +8345,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8357,7 +8359,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8368,25 +8370,25 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8404,7 +8406,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8420,7 +8422,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8434,7 +8436,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8448,7 +8450,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8457,19 +8459,19 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="114" t="s">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +8486,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8497,7 +8499,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8508,7 +8510,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8519,7 +8521,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8556,46 +8558,46 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8604,13 +8606,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8622,7 +8624,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8632,7 +8634,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8642,13 +8644,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8658,7 +8660,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8668,25 +8670,25 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8700,7 +8702,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8712,7 +8714,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8724,7 +8726,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8735,25 +8737,25 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8771,7 +8773,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8787,7 +8789,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8801,7 +8803,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8815,7 +8817,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8824,19 +8826,19 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="114" t="s">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8847,7 +8849,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8860,7 +8862,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8871,7 +8873,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8880,7 +8882,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8917,41 +8919,41 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+    </row>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8959,41 +8961,41 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-    </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+    </row>
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9003,7 +9005,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9011,7 +9013,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9019,7 +9021,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9029,16 +9031,16 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+    </row>
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9052,7 +9054,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9064,7 +9066,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9074,7 +9076,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9084,7 +9086,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9092,15 +9094,15 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="114" t="s">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9110,7 +9112,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9122,7 +9124,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9132,7 +9134,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9140,7 +9142,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9173,48 +9175,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7469E0-1E00-0D4A-9ADD-1A703ACB81A1}">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9222,12 +9224,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9240,7 +9242,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -9251,7 +9253,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -9260,12 +9262,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9276,7 +9278,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9287,23 +9289,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9318,7 +9320,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9331,7 +9333,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9344,7 +9346,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9355,23 +9357,23 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -9388,7 +9390,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9405,7 +9407,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -9416,7 +9418,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9427,7 +9429,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9438,22 +9440,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
     </row>
   </sheetData>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018CE86A-0F02-5147-8E2D-6D9B1FA64FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{018CE86A-0F02-5147-8E2D-6D9B1FA64FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{969191CD-ED45-46B2-9D2B-D9A22EFF880C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="535" firstSheet="5" activeTab="13" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="12930" yWindow="-15540" windowWidth="21600" windowHeight="14070" tabRatio="535" firstSheet="12" activeTab="17" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="181">
   <si>
     <t>Fotographos</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Actualizacion</t>
   </si>
   <si>
-    <t>Renovacion????</t>
-  </si>
-  <si>
     <t>MASTER</t>
   </si>
   <si>
@@ -603,16 +600,7 @@
     <t>Marzo</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Direccion</t>
-  </si>
-  <si>
-    <t>Luis</t>
   </si>
   <si>
     <t>Expensas</t>
@@ -626,10 +614,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1087,25 +1075,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1117,7 +1105,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1220,28 +1208,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1332,7 +1320,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1350,16 +1338,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1368,8 +1356,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,8 +1402,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1492,9 +1480,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1532,7 +1520,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1638,7 +1626,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1780,7 +1768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1797,21 +1785,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1813,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1865,7 +1853,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1895,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -1947,7 +1935,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -1987,7 +1975,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2027,7 +2015,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2067,7 +2055,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2111,7 +2099,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2155,7 +2143,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2199,7 +2187,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2243,7 +2231,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2288,7 +2276,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2332,7 +2320,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2376,7 +2364,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2421,7 +2409,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2466,7 +2454,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2511,7 +2499,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2556,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2606,7 +2594,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2656,7 +2644,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2704,7 +2692,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2752,7 +2740,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2798,7 +2786,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2844,7 +2832,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2890,7 +2878,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -2934,7 +2922,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -2978,7 +2966,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3023,7 +3011,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3068,7 +3056,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3113,7 +3101,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3157,7 +3145,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3201,7 +3189,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3246,7 +3234,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3291,7 +3279,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3324,7 +3312,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3354,7 +3342,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3374,7 +3362,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3394,7 +3382,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3412,7 +3400,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3430,7 +3418,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3446,7 +3434,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3462,7 +3450,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3478,7 +3466,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3494,7 +3482,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3510,7 +3498,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3526,7 +3514,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3542,7 +3530,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3558,7 +3546,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3574,7 +3562,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3590,7 +3578,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3606,7 +3594,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3635,22 +3623,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.1640625" style="31"/>
+    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3663,12 +3651,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3683,12 +3671,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3701,7 +3689,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3710,7 +3698,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3719,12 +3707,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3733,7 +3721,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3742,12 +3730,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -3758,7 +3746,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3775,7 +3763,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3788,7 +3776,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3799,7 +3787,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3810,12 +3798,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -3826,7 +3814,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3843,7 +3831,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3854,7 +3842,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3863,7 +3851,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3874,7 +3862,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3885,22 +3873,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3927,19 +3915,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3952,12 +3940,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3972,12 +3960,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3990,7 +3978,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3999,7 +3987,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4008,12 +3996,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4024,7 +4012,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4035,12 +4023,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4051,7 +4039,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4068,7 +4056,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4079,7 +4067,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4090,7 +4078,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4098,12 +4086,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>47</v>
       </c>
@@ -4114,7 +4102,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4131,7 +4119,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4148,7 +4136,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4159,7 +4147,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4170,7 +4158,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4182,7 +4170,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4194,7 +4182,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4202,7 +4190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4210,7 +4198,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4218,7 +4206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4250,19 +4238,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4275,12 +4263,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4295,12 +4283,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4313,7 +4301,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4324,7 +4312,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4333,12 +4321,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4352,7 +4340,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4366,12 +4354,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>129</v>
       </c>
@@ -4382,7 +4370,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4399,7 +4387,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4410,7 +4398,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4421,7 +4409,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4432,12 +4420,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>54</v>
       </c>
@@ -4448,7 +4436,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4465,7 +4453,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4482,7 +4470,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4493,7 +4481,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4506,7 +4494,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4519,13 +4507,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4553,19 +4541,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4578,12 +4566,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4598,12 +4586,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4614,7 +4602,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4623,7 +4611,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4632,12 +4620,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4646,7 +4634,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4655,12 +4643,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4671,7 +4659,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4688,7 +4676,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4699,7 +4687,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4712,7 +4700,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4722,12 +4710,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -4738,7 +4726,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4755,7 +4743,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4772,7 +4760,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4783,7 +4771,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4796,7 +4784,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4829,23 +4817,23 @@
   </sheetPr>
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4858,12 +4846,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4878,12 +4866,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4896,7 +4884,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4905,7 +4893,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4914,12 +4902,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4930,7 +4918,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4941,12 +4929,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4957,7 +4945,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4974,7 +4962,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4985,7 +4973,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4998,7 +4986,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -5010,12 +4998,12 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -5026,7 +5014,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5043,7 +5031,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5060,7 +5048,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5073,7 +5061,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5086,7 +5074,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5117,43 +5105,43 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA18" sqref="AA18"/>
+      <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z3" sqref="A3:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" style="64" customWidth="1"/>
+    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="64" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="64"/>
+    <col min="28" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="121" t="s">
         <v>144</v>
       </c>
@@ -5199,7 +5187,7 @@
       </c>
       <c r="AA1" s="120"/>
     </row>
-    <row r="2" spans="1:27" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5273,7 +5261,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5330,7 +5318,7 @@
       <c r="Z3" s="81"/>
       <c r="AA3" s="82"/>
     </row>
-    <row r="4" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5384,7 +5372,7 @@
       <c r="Z4" s="83"/>
       <c r="AA4" s="84"/>
     </row>
-    <row r="5" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5438,7 +5426,7 @@
       <c r="Z5" s="83"/>
       <c r="AA5" s="84"/>
     </row>
-    <row r="6" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5497,7 +5485,7 @@
       <c r="Z6" s="83"/>
       <c r="AA6" s="84"/>
     </row>
-    <row r="7" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5557,7 +5545,7 @@
       <c r="Z7" s="85"/>
       <c r="AA7" s="86"/>
     </row>
-    <row r="8" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5635,15 +5623,13 @@
         <f>SUM(X3:Y7)</f>
         <v>230482.22000000003</v>
       </c>
-      <c r="Z8" s="87" t="s">
-        <v>150</v>
-      </c>
+      <c r="Z8" s="87"/>
       <c r="AA8" s="88">
         <f>SUM(Z3:AA7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5697,10 +5683,14 @@
       <c r="Y9" s="82">
         <v>42101.03</v>
       </c>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="82"/>
-    </row>
-    <row r="10" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="81">
+        <v>54600</v>
+      </c>
+      <c r="AA9" s="82">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5756,10 +5746,14 @@
       <c r="Y10" s="84">
         <v>44414.18</v>
       </c>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="84"/>
-    </row>
-    <row r="11" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="83">
+        <v>57600</v>
+      </c>
+      <c r="AA10" s="84">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5816,10 +5810,14 @@
       <c r="Y11" s="86">
         <v>42471.21</v>
       </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="86"/>
-    </row>
-    <row r="12" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="85">
+        <v>55080</v>
+      </c>
+      <c r="AA11" s="86">
+        <v>55080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5897,15 +5895,13 @@
         <f>SUM(Y9:Y11)</f>
         <v>128986.41999999998</v>
       </c>
-      <c r="Z12" s="87" t="s">
-        <v>150</v>
-      </c>
+      <c r="Z12" s="87"/>
       <c r="AA12" s="88">
         <f>SUM(AA9:AA11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>167280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -5979,12 +5975,10 @@
       <c r="Y13" s="93">
         <v>272360.11</v>
       </c>
-      <c r="Z13" s="89" t="s">
-        <v>150</v>
-      </c>
+      <c r="Z13" s="89"/>
       <c r="AA13" s="93"/>
     </row>
-    <row r="14" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6054,12 +6048,10 @@
       <c r="Y14" s="93">
         <v>68000.11</v>
       </c>
-      <c r="Z14" s="89" t="s">
-        <v>150</v>
-      </c>
+      <c r="Z14" s="89"/>
       <c r="AA14" s="93"/>
     </row>
-    <row r="15" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6129,12 +6121,10 @@
       <c r="Y15" s="90">
         <v>150000.01999999999</v>
       </c>
-      <c r="Z15" s="89" t="s">
-        <v>150</v>
-      </c>
+      <c r="Z15" s="89"/>
       <c r="AA15" s="90"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6169,7 +6159,7 @@
       </c>
       <c r="AA16" s="92">
         <f>AA15+AA14+AA13+AA12+AA8</f>
-        <v>0</v>
+        <v>167280</v>
       </c>
     </row>
   </sheetData>
@@ -6198,19 +6188,19 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>168</v>
       </c>
       <c r="D2">
         <v>1212060.96</v>
@@ -6223,9 +6213,9 @@
         <v>108354.91999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3">
         <v>1318678.6399999999</v>
@@ -6247,9 +6237,9 @@
         <v>31434.119999999959</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4">
         <v>2175847.61</v>
@@ -6271,27 +6261,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F33156-2118-7347-88EF-33566C005459}">
   <dimension ref="B1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6301,33 +6291,33 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>149</v>
       </c>
       <c r="D2" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="F2" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="G2" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="H2" s="65" t="s">
         <v>174</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>175</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6335,7 +6325,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="70">
         <v>1</v>
@@ -6352,17 +6342,14 @@
       <c r="I3" s="96">
         <v>45505</v>
       </c>
-      <c r="K3" s="65" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="65">
         <v>2</v>
@@ -6375,13 +6362,13 @@
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="65">
         <v>3</v>
@@ -6403,7 +6390,7 @@
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6431,7 +6418,7 @@
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6449,17 +6436,17 @@
         <v>45017</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I7" s="97">
-        <v>45383</v>
+        <v>45536</v>
       </c>
       <c r="N7" s="100"/>
       <c r="O7" s="100"/>
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6489,7 +6476,7 @@
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6517,7 +6504,7 @@
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6545,7 +6532,7 @@
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6575,7 +6562,7 @@
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6605,7 +6592,7 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6633,7 +6620,7 @@
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6661,7 +6648,7 @@
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6689,7 +6676,7 @@
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6717,7 +6704,7 @@
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6742,9 +6729,9 @@
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -6757,25 +6744,25 @@
       <c r="H18" s="70"/>
       <c r="I18" s="96"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="106">
         <f>F7</f>
         <v>267000</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="99" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C23" s="106">
         <f>+Expensas!Y7</f>
         <v>81897.77</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="99" t="s">
         <v>15</v>
       </c>
@@ -6783,7 +6770,7 @@
         <v>783.84</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="99" t="s">
         <v>14</v>
       </c>
@@ -6791,17 +6778,17 @@
         <v>15649.9</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="99" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C26" s="106">
         <v>21866.68</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="107">
         <f>SUM(C22:C26)</f>
@@ -6818,20 +6805,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3767BBE3-E496-124D-A78A-1321E9EF59D3}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6839,25 +6826,25 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="2:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
       </c>
       <c r="D2" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="F2" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="100" t="s">
-        <v>173</v>
-      </c>
       <c r="G2" s="95" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6865,47 +6852,61 @@
         <v>12</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="70">
         <v>1</v>
       </c>
       <c r="F3" s="101">
+        <f>+Contratos!F3</f>
         <v>25000</v>
       </c>
-      <c r="G3" s="96"/>
-    </row>
-    <row r="4" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="101">
+        <f>+F3+Expensas!Z3</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="65">
         <v>2</v>
       </c>
-      <c r="F4" s="100"/>
+      <c r="F4" s="100">
+        <f>+Contratos!F4</f>
+        <v>0</v>
+      </c>
       <c r="G4" s="95"/>
-    </row>
-    <row r="5" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="65">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="65">
         <v>3</v>
       </c>
       <c r="F5" s="100">
+        <f>+Contratos!F5</f>
         <v>25000</v>
       </c>
       <c r="G5" s="95"/>
-    </row>
-    <row r="6" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6917,11 +6918,18 @@
         <v>4</v>
       </c>
       <c r="F6" s="100">
+        <f>+Contratos!F6</f>
         <v>179000</v>
       </c>
-      <c r="G6" s="95"/>
-    </row>
-    <row r="7" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="100">
+        <f>+F6+Expensas!Z6</f>
+        <v>179000</v>
+      </c>
+      <c r="I6" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6933,11 +6941,18 @@
         <v>5</v>
       </c>
       <c r="F7" s="102">
-        <v>90000</v>
-      </c>
-      <c r="G7" s="97"/>
-    </row>
-    <row r="8" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <f>+Contratos!F7</f>
+        <v>267000</v>
+      </c>
+      <c r="G7" s="102">
+        <f>+F7+Expensas!Z7</f>
+        <v>267000</v>
+      </c>
+      <c r="I7" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6951,13 +6966,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="101">
+        <f>+Contratos!F8</f>
         <v>150000</v>
       </c>
-      <c r="G8" s="96" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="101">
+        <f>+F8+Expensas!Z9</f>
+        <v>204600</v>
+      </c>
+      <c r="I8" s="65">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6969,13 +6989,15 @@
         <v>7</v>
       </c>
       <c r="F9" s="100">
+        <f>+Contratos!F9</f>
         <v>163000</v>
       </c>
-      <c r="G9" s="95" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="100">
+        <f>+F9+Expensas!Z10</f>
+        <v>220600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6987,13 +7009,15 @@
         <v>8</v>
       </c>
       <c r="F10" s="102">
+        <f>+Contratos!F10</f>
         <v>133000</v>
       </c>
-      <c r="G10" s="97" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="102">
+        <f>+F10+Expensas!Z11</f>
+        <v>188080</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -7007,11 +7031,12 @@
         <v>9</v>
       </c>
       <c r="F11" s="103">
+        <f>+Contratos!F11</f>
         <v>130000</v>
       </c>
       <c r="G11" s="95"/>
     </row>
-    <row r="12" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7025,13 +7050,12 @@
         <v>10</v>
       </c>
       <c r="F12" s="101">
+        <f>+Contratos!F12</f>
         <v>70000</v>
       </c>
-      <c r="G12" s="96" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="96"/>
+    </row>
+    <row r="13" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7042,14 +7066,10 @@
       <c r="E13" s="65">
         <v>11</v>
       </c>
-      <c r="F13" s="100">
-        <v>109000</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="100"/>
+      <c r="G13" s="95"/>
+    </row>
+    <row r="14" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7061,11 +7081,12 @@
         <v>12</v>
       </c>
       <c r="F14" s="100">
-        <v>52000</v>
+        <f>+Contratos!F14</f>
+        <v>170000</v>
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7077,13 +7098,12 @@
         <v>13</v>
       </c>
       <c r="F15" s="100">
+        <f>+Contratos!F15</f>
         <v>150000</v>
       </c>
-      <c r="G15" s="95" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="95"/>
+    </row>
+    <row r="16" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7095,14 +7115,13 @@
         <v>14</v>
       </c>
       <c r="F16" s="102">
+        <f>+Contratos!F16</f>
         <v>134000</v>
       </c>
-      <c r="G16" s="97" t="s">
-        <v>179</v>
-      </c>
+      <c r="G16" s="97"/>
       <c r="I16" s="94"/>
     </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7115,25 +7134,28 @@
       <c r="E17" s="65">
         <v>15</v>
       </c>
-      <c r="F17" s="103"/>
+      <c r="F17" s="103">
+        <f>+Contratos!F17</f>
+        <v>290000</v>
+      </c>
       <c r="G17" s="95"/>
     </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
       <c r="E18" s="70"/>
       <c r="F18" s="101">
         <f>SUM(F3:F17)</f>
-        <v>1410000</v>
+        <v>1886000</v>
       </c>
       <c r="G18" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7145,29 +7167,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="6" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7176,7 +7198,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -7184,7 +7206,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -7192,7 +7214,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -7200,7 +7222,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -7208,7 +7230,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -7216,7 +7238,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -7224,7 +7246,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -7235,7 +7257,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -7246,7 +7268,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -7257,7 +7279,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -7268,7 +7290,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -7279,7 +7301,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -7287,23 +7309,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -7323,17 +7345,17 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7343,8 +7365,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7356,8 +7378,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7365,33 +7387,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -7399,7 +7421,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7411,7 +7433,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7419,7 +7441,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7429,7 +7451,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7441,8 +7463,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -7450,7 +7472,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7464,7 +7486,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7478,7 +7500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -7490,7 +7512,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7500,7 +7522,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7508,7 +7530,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -7516,7 +7538,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7526,7 +7548,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7538,7 +7560,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7548,7 +7570,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7558,7 +7580,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7595,18 +7617,18 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7616,8 +7638,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7629,8 +7651,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7640,33 +7662,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -7674,7 +7696,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7686,7 +7708,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7696,7 +7718,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7706,7 +7728,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7716,8 +7738,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -7725,7 +7747,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7739,7 +7761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7751,7 +7773,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7761,7 +7783,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7771,7 +7793,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7779,7 +7801,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -7787,7 +7809,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7797,7 +7819,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7809,7 +7831,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7819,7 +7841,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7829,7 +7851,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7866,17 +7888,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7886,8 +7908,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7899,8 +7921,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7908,33 +7930,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -7945,7 +7967,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7957,7 +7979,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7965,7 +7987,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7975,7 +7997,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7983,8 +8005,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -7992,7 +8014,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8006,7 +8028,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8018,7 +8040,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8028,7 +8050,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8038,7 +8060,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8046,7 +8068,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8054,7 +8076,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8068,7 +8090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8080,7 +8102,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8090,7 +8112,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8100,7 +8122,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -8114,7 +8136,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -8153,20 +8175,20 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8184,7 +8206,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -8194,7 +8216,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8214,7 +8236,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -8224,7 +8246,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8240,7 +8262,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8255,7 +8277,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8269,7 +8291,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -8280,7 +8302,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8288,7 +8310,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8297,13 +8319,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8315,7 +8337,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8331,7 +8353,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8345,7 +8367,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8359,7 +8381,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8370,13 +8392,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8388,7 +8410,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8406,7 +8428,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8422,7 +8444,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8436,7 +8458,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8450,7 +8472,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8459,10 +8481,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8471,7 +8493,7 @@
       <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8486,7 +8508,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8499,7 +8521,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8510,7 +8532,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8521,7 +8543,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8558,19 +8580,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8584,13 +8606,13 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8606,13 +8628,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8624,7 +8646,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8634,7 +8656,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8644,13 +8666,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8660,7 +8682,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8670,13 +8692,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8688,7 +8710,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8702,7 +8724,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8714,7 +8736,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8726,7 +8748,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8737,13 +8759,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8755,7 +8777,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8773,7 +8795,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8789,7 +8811,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8803,7 +8825,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8817,7 +8839,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8826,10 +8848,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8838,7 +8860,7 @@
       <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8849,7 +8871,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8862,7 +8884,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8873,7 +8895,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8882,7 +8904,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8919,17 +8941,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8939,8 +8961,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8952,8 +8974,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8961,33 +8983,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8995,7 +9017,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9005,7 +9027,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9013,7 +9035,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9021,7 +9043,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9031,8 +9053,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -9040,7 +9062,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9054,7 +9076,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9066,7 +9088,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9076,7 +9098,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9086,7 +9108,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9094,7 +9116,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -9102,7 +9124,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9112,7 +9134,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9124,7 +9146,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9134,7 +9156,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9142,7 +9164,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9179,19 +9201,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9204,12 +9226,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9224,12 +9246,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9242,7 +9264,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -9253,7 +9275,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -9262,12 +9284,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9278,7 +9300,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9289,12 +9311,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -9305,7 +9327,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9320,7 +9342,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9333,7 +9355,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9346,7 +9368,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9357,12 +9379,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -9373,7 +9395,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -9390,7 +9412,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9407,7 +9429,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -9418,7 +9440,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9429,7 +9451,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9440,22 +9462,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{018CE86A-0F02-5147-8E2D-6D9B1FA64FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{969191CD-ED45-46B2-9D2B-D9A22EFF880C}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{018CE86A-0F02-5147-8E2D-6D9B1FA64FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E38D0186-0A16-49A7-98E0-9A3ED851210E}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="-15540" windowWidth="21600" windowHeight="14070" tabRatio="535" firstSheet="12" activeTab="17" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-24945" yWindow="630" windowWidth="23235" windowHeight="13260" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -614,10 +614,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1075,25 +1075,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,28 +1208,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1320,7 +1320,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1338,16 +1338,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1402,8 +1402,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1480,9 +1480,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1520,7 +1520,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1626,7 +1626,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1768,7 +1768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1785,7 +1785,7 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
@@ -3623,7 +3623,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -3915,7 +3915,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4238,7 +4238,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4541,7 +4541,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4821,7 +4821,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -5104,12 +5104,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z3" sqref="A3:Z3"/>
+      <selection pane="topRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
@@ -5316,7 +5316,9 @@
         <v>19504.12</v>
       </c>
       <c r="Z3" s="81"/>
-      <c r="AA3" s="82"/>
+      <c r="AA3" s="82">
+        <v>33673.120000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
@@ -5370,7 +5372,9 @@
         <v>19503.57</v>
       </c>
       <c r="Z4" s="83"/>
-      <c r="AA4" s="84"/>
+      <c r="AA4" s="84">
+        <v>33672.57</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
@@ -5424,7 +5428,9 @@
         <v>19504.05</v>
       </c>
       <c r="Z5" s="83"/>
-      <c r="AA5" s="84"/>
+      <c r="AA5" s="84">
+        <v>33673.050000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
@@ -5483,7 +5489,9 @@
         <v>90072.71</v>
       </c>
       <c r="Z6" s="83"/>
-      <c r="AA6" s="84"/>
+      <c r="AA6" s="84">
+        <v>129133.71</v>
+      </c>
     </row>
     <row r="7" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
@@ -5543,7 +5551,9 @@
         <v>81897.77</v>
       </c>
       <c r="Z7" s="85"/>
-      <c r="AA7" s="86"/>
+      <c r="AA7" s="86">
+        <v>117417.77</v>
+      </c>
     </row>
     <row r="8" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
@@ -5626,7 +5636,7 @@
       <c r="Z8" s="87"/>
       <c r="AA8" s="88">
         <f>SUM(Z3:AA7)</f>
-        <v>0</v>
+        <v>347570.22000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5976,7 +5986,9 @@
         <v>272360.11</v>
       </c>
       <c r="Z13" s="89"/>
-      <c r="AA13" s="93"/>
+      <c r="AA13" s="93">
+        <v>198080.11</v>
+      </c>
     </row>
     <row r="14" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
@@ -6049,7 +6061,9 @@
         <v>68000.11</v>
       </c>
       <c r="Z14" s="89"/>
-      <c r="AA14" s="93"/>
+      <c r="AA14" s="93">
+        <v>76800.11</v>
+      </c>
     </row>
     <row r="15" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
@@ -6122,7 +6136,9 @@
         <v>150000.01999999999</v>
       </c>
       <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
+      <c r="AA15" s="90">
+        <v>150000.01999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
@@ -6159,22 +6175,22 @@
       </c>
       <c r="AA16" s="92">
         <f>AA15+AA14+AA13+AA12+AA8</f>
-        <v>167280</v>
+        <v>939730.46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6188,7 +6204,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -6265,7 +6281,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
@@ -6805,11 +6821,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3767BBE3-E496-124D-A78A-1321E9EF59D3}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -7167,7 +7183,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
@@ -7182,7 +7198,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45446</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7345,7 +7361,7 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -7617,7 +7633,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -7888,7 +7904,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8175,7 +8191,7 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8580,7 +8596,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8941,7 +8957,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9201,7 +9217,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{018CE86A-0F02-5147-8E2D-6D9B1FA64FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E38D0186-0A16-49A7-98E0-9A3ED851210E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA0430-A4C0-2342-852B-C8F8C3F68C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24945" yWindow="630" windowWidth="23235" windowHeight="13260" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -614,10 +614,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1077,23 +1077,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,26 +1208,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1320,7 +1320,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1338,16 +1338,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1356,8 +1356,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1785,21 +1785,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="16.375" customWidth="1"/>
-    <col min="17" max="17" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -1935,7 +1935,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -1975,7 +1975,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2015,7 +2015,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2055,7 +2055,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2099,7 +2099,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2143,7 +2143,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2187,7 +2187,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2231,7 +2231,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2320,7 +2320,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2364,7 +2364,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2409,7 +2409,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2454,7 +2454,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2499,7 +2499,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2594,7 +2594,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2644,7 +2644,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2692,7 +2692,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2740,7 +2740,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2786,7 +2786,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2832,7 +2832,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2878,7 +2878,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -2922,7 +2922,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -2966,7 +2966,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3011,7 +3011,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3056,7 +3056,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3101,7 +3101,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3145,7 +3145,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3189,7 +3189,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3234,7 +3234,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3279,7 +3279,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3312,7 +3312,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3342,7 +3342,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3362,7 +3362,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3382,7 +3382,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3400,7 +3400,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3418,7 +3418,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3434,7 +3434,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3450,7 +3450,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3466,7 +3466,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3482,7 +3482,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3498,7 +3498,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3514,7 +3514,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3530,7 +3530,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3546,7 +3546,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3562,7 +3562,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3578,7 +3578,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3594,7 +3594,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3623,22 +3623,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.125" style="31"/>
+    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3651,12 +3651,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3671,12 +3671,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3698,7 +3698,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3707,12 +3707,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3730,12 +3730,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3763,7 +3763,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3798,12 +3798,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3831,7 +3831,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3851,7 +3851,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3873,22 +3873,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3915,19 +3915,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3940,12 +3940,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3960,12 +3960,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3987,7 +3987,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3996,12 +3996,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4023,12 +4023,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4067,7 +4067,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4086,12 +4086,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>47</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4147,7 +4147,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4238,19 +4238,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4263,12 +4263,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4283,12 +4283,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4312,7 +4312,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4321,12 +4321,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4340,7 +4340,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4354,12 +4354,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>129</v>
       </c>
@@ -4370,7 +4370,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4420,12 +4420,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>54</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4481,7 +4481,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4507,13 +4507,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4541,19 +4541,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4566,12 +4566,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4586,12 +4586,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4611,7 +4611,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4620,12 +4620,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4643,12 +4643,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4710,12 +4710,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4743,7 +4743,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4771,7 +4771,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4821,19 +4821,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4846,12 +4846,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4866,12 +4866,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4884,7 +4884,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4893,7 +4893,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4902,12 +4902,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4929,12 +4929,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -4998,12 +4998,12 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5061,7 +5061,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5074,7 +5074,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5106,42 +5106,42 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="topRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="64" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="64"/>
+    <col min="28" max="16384" width="10.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="121" t="s">
         <v>144</v>
       </c>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="AA1" s="120"/>
     </row>
-    <row r="2" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>33673.120000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5376,7 +5376,7 @@
         <v>33672.57</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5432,7 +5432,7 @@
         <v>33673.050000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5493,7 +5493,7 @@
         <v>129133.71</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5555,7 +5555,7 @@
         <v>117417.77</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>347570.22000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5697,10 +5697,10 @@
         <v>54600</v>
       </c>
       <c r="AA9" s="82">
-        <v>54600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54600.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5760,10 +5760,10 @@
         <v>57600</v>
       </c>
       <c r="AA10" s="84">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57600.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5824,10 +5824,10 @@
         <v>55080</v>
       </c>
       <c r="AA11" s="86">
-        <v>55080</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55080.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5908,10 +5908,10 @@
       <c r="Z12" s="87"/>
       <c r="AA12" s="88">
         <f>SUM(AA9:AA11)</f>
-        <v>167280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>167280.41999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>198080.11</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>76800.11</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>150000.01999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6175,22 +6175,22 @@
       </c>
       <c r="AA16" s="92">
         <f>AA15+AA14+AA13+AA12+AA8</f>
-        <v>939730.46</v>
+        <v>939730.87999999989</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6204,9 +6204,9 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>165</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>108354.91999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>31434.119999999959</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -6278,26 +6278,26 @@
   <dimension ref="B1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6307,7 +6307,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98" t="s">
         <v>178</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6378,7 +6378,7 @@
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6406,7 +6406,7 @@
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6434,7 +6434,7 @@
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6462,7 +6462,7 @@
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6492,7 +6492,7 @@
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6520,7 +6520,7 @@
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6548,7 +6548,7 @@
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6578,7 +6578,7 @@
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6608,7 +6608,7 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6636,7 +6636,7 @@
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6664,7 +6664,7 @@
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6692,7 +6692,7 @@
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6720,7 +6720,7 @@
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
         <v>169</v>
       </c>
@@ -6760,7 +6760,7 @@
       <c r="H18" s="70"/>
       <c r="I18" s="96"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="99" t="s">
         <v>172</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="99" t="s">
         <v>179</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>81897.77</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="99" t="s">
         <v>15</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>783.84</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="99" t="s">
         <v>14</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>15649.9</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="99" t="s">
         <v>180</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>21866.68</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
         <v>169</v>
       </c>
@@ -6825,16 +6825,16 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6842,7 +6842,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="2:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -6860,7 +6860,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6902,7 +6902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6922,7 +6922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6945,7 +6945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6968,7 +6968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -7013,7 +7013,7 @@
         <v>220600</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -7033,7 +7033,7 @@
         <v>188080</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="G11" s="95"/>
     </row>
-    <row r="12" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="G12" s="96"/>
     </row>
-    <row r="13" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7085,7 +7085,7 @@
       <c r="F13" s="100"/>
       <c r="G13" s="95"/>
     </row>
-    <row r="14" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="G15" s="95"/>
     </row>
-    <row r="16" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7137,7 +7137,7 @@
       <c r="G16" s="97"/>
       <c r="I16" s="94"/>
     </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="G17" s="95"/>
     </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
         <v>169</v>
       </c>
@@ -7183,29 +7183,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="8"/>
+    <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -7325,23 +7325,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -7361,17 +7361,17 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7381,8 +7381,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7394,8 +7394,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7403,33 +7403,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -7437,7 +7437,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7457,7 +7457,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7467,7 +7467,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7479,8 +7479,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -7488,7 +7488,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -7528,7 +7528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7538,7 +7538,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7546,7 +7546,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -7554,7 +7554,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7596,7 +7596,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7633,18 +7633,18 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7654,8 +7654,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7667,8 +7667,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7678,33 +7678,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7734,7 +7734,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7744,7 +7744,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7754,8 +7754,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7817,7 +7817,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -7825,7 +7825,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7867,7 +7867,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7904,17 +7904,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7924,8 +7924,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7937,8 +7937,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7946,33 +7946,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8013,7 +8013,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8021,8 +8021,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8030,7 +8030,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8076,7 +8076,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8084,7 +8084,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8092,7 +8092,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -8191,20 +8191,20 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.125" style="31"/>
+    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -8262,7 +8262,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8278,7 +8278,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8293,7 +8293,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8307,7 +8307,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -8318,7 +8318,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8326,7 +8326,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8335,13 +8335,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8353,7 +8353,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8369,7 +8369,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8383,7 +8383,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8408,13 +8408,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8426,7 +8426,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8444,7 +8444,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8460,7 +8460,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8474,7 +8474,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8488,7 +8488,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8497,10 +8497,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8537,7 +8537,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8548,7 +8548,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8559,7 +8559,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8596,19 +8596,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8622,13 +8622,13 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8644,13 +8644,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8662,7 +8662,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8672,7 +8672,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8682,13 +8682,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8708,13 +8708,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8726,7 +8726,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8740,7 +8740,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8752,7 +8752,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8764,7 +8764,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8775,13 +8775,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8793,7 +8793,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8811,7 +8811,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8827,7 +8827,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8841,7 +8841,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8864,10 +8864,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8887,7 +8887,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8911,7 +8911,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8957,17 +8957,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8977,8 +8977,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8990,8 +8990,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8999,33 +8999,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -9033,7 +9033,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9051,7 +9051,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9059,7 +9059,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9069,8 +9069,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -9078,7 +9078,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9114,7 +9114,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9124,7 +9124,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9132,7 +9132,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -9140,7 +9140,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9162,7 +9162,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9217,19 +9217,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9242,12 +9242,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9262,12 +9262,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -9291,7 +9291,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -9300,12 +9300,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9316,7 +9316,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9327,12 +9327,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -9343,7 +9343,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9358,7 +9358,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9384,7 +9384,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9395,12 +9395,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -9411,7 +9411,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -9428,7 +9428,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -9456,7 +9456,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9478,22 +9478,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
     </row>
   </sheetData>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA0430-A4C0-2342-852B-C8F8C3F68C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{06BA0430-A4C0-2342-852B-C8F8C3F68C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B8B15B7-CA0D-47D0-88D6-14CD95B3CB3E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-23895" yWindow="1035" windowWidth="23235" windowHeight="13260" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -614,10 +614,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1077,23 +1077,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,26 +1208,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1320,7 +1320,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1338,16 +1338,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1356,8 +1356,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,6 +1477,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,21 +1789,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1853,7 +1857,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1895,7 +1899,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -1935,7 +1939,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -1975,7 +1979,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2015,7 +2019,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2055,7 +2059,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2099,7 +2103,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2143,7 +2147,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2187,7 +2191,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2231,7 +2235,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2276,7 +2280,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2320,7 +2324,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2364,7 +2368,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2409,7 +2413,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2454,7 +2458,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2499,7 +2503,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2544,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2594,7 +2598,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2644,7 +2648,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2692,7 +2696,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2740,7 +2744,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2786,7 +2790,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2832,7 +2836,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2878,7 +2882,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -2922,7 +2926,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -2966,7 +2970,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3011,7 +3015,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3056,7 +3060,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3101,7 +3105,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3145,7 +3149,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3189,7 +3193,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3234,7 +3238,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3279,7 +3283,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3312,7 +3316,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3342,7 +3346,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3362,7 +3366,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3382,7 +3386,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3400,7 +3404,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3418,7 +3422,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3434,7 +3438,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3450,7 +3454,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3466,7 +3470,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3482,7 +3486,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3498,7 +3502,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3514,7 +3518,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3530,7 +3534,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3546,7 +3550,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3562,7 +3566,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3578,7 +3582,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3594,7 +3598,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3623,22 +3627,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.1640625" style="31"/>
+    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3651,12 +3655,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3671,12 +3675,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3689,7 +3693,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3698,7 +3702,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3707,12 +3711,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3721,7 +3725,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3730,12 +3734,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -3746,7 +3750,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3763,7 +3767,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3776,7 +3780,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3787,7 +3791,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3798,12 +3802,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -3814,7 +3818,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3831,7 +3835,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3842,7 +3846,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3851,7 +3855,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3862,7 +3866,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3873,22 +3877,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3915,19 +3919,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3940,12 +3944,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3960,12 +3964,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3978,7 +3982,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3987,7 +3991,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3996,12 +4000,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4012,7 +4016,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4023,12 +4027,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4039,7 +4043,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4056,7 +4060,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4067,7 +4071,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4078,7 +4082,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4086,12 +4090,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>47</v>
       </c>
@@ -4102,7 +4106,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4119,7 +4123,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4136,7 +4140,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4147,7 +4151,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4158,7 +4162,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4170,7 +4174,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4190,7 +4194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4198,7 +4202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4238,19 +4242,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4263,12 +4267,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4283,12 +4287,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4301,7 +4305,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4312,7 +4316,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4321,12 +4325,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4340,7 +4344,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4354,12 +4358,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>129</v>
       </c>
@@ -4370,7 +4374,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4387,7 +4391,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4398,7 +4402,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4409,7 +4413,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4420,12 +4424,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>54</v>
       </c>
@@ -4436,7 +4440,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4453,7 +4457,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4470,7 +4474,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4481,7 +4485,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4494,7 +4498,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4507,13 +4511,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4541,19 +4545,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4566,12 +4570,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4586,12 +4590,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4602,7 +4606,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4611,7 +4615,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4620,12 +4624,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4634,7 +4638,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4643,12 +4647,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4659,7 +4663,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4676,7 +4680,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4687,7 +4691,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4700,7 +4704,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4710,12 +4714,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4730,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4743,7 +4747,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4760,7 +4764,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4771,7 +4775,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4784,7 +4788,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4821,19 +4825,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4846,12 +4850,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4866,12 +4870,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4884,7 +4888,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4893,7 +4897,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4902,12 +4906,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4918,7 +4922,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4929,12 +4933,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4945,7 +4949,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4962,7 +4966,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4973,7 +4977,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4986,7 +4990,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -4998,12 +5002,12 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -5014,7 +5018,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5031,7 +5035,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5048,7 +5052,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5061,7 +5065,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5074,7 +5078,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5106,42 +5110,42 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="topRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" style="64" customWidth="1"/>
+    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="64" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="64"/>
+    <col min="28" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="121" t="s">
         <v>144</v>
       </c>
@@ -5187,7 +5191,7 @@
       </c>
       <c r="AA1" s="120"/>
     </row>
-    <row r="2" spans="1:27" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>33673.120000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5376,7 +5380,7 @@
         <v>33672.57</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5432,7 +5436,7 @@
         <v>33673.050000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5493,7 +5497,7 @@
         <v>129133.71</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5555,7 +5559,7 @@
         <v>117417.77</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>347570.22000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5700,7 +5704,7 @@
         <v>54600.03</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5763,7 +5767,7 @@
         <v>57600.18</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5827,7 +5831,7 @@
         <v>55080.21</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>167280.41999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -5990,7 +5994,7 @@
         <v>198080.11</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>76800.11</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>150000.01999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6204,9 +6208,9 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>165</v>
       </c>
@@ -6214,7 +6218,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>108354.91999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>31434.119999999959</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -6281,23 +6285,23 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6307,7 +6311,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
         <v>178</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6359,7 +6363,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6378,7 +6382,7 @@
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6406,7 +6410,7 @@
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6434,7 +6438,7 @@
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6462,7 +6466,7 @@
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6492,7 +6496,7 @@
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6520,7 +6524,7 @@
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6548,7 +6552,7 @@
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6578,7 +6582,7 @@
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6608,7 +6612,7 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6636,7 +6640,7 @@
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6664,7 +6668,7 @@
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6692,7 +6696,7 @@
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6720,7 +6724,7 @@
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6745,7 +6749,7 @@
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
         <v>169</v>
       </c>
@@ -6760,7 +6764,7 @@
       <c r="H18" s="70"/>
       <c r="I18" s="96"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="s">
         <v>172</v>
       </c>
@@ -6769,7 +6773,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="99" t="s">
         <v>179</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>81897.77</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="99" t="s">
         <v>15</v>
       </c>
@@ -6786,7 +6790,7 @@
         <v>783.84</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="99" t="s">
         <v>14</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>15649.9</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="99" t="s">
         <v>180</v>
       </c>
@@ -6802,7 +6806,7 @@
         <v>21866.68</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="99" t="s">
         <v>169</v>
       </c>
@@ -6825,16 +6829,16 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6842,7 +6846,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="2:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -6860,7 +6864,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6882,7 +6886,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6902,7 +6906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6922,7 +6926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6945,7 +6949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6968,7 +6972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6993,7 +6997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -7013,7 +7017,7 @@
         <v>220600</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -7033,7 +7037,7 @@
         <v>188080</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -7052,7 +7056,7 @@
       </c>
       <c r="G11" s="95"/>
     </row>
-    <row r="12" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7071,7 +7075,7 @@
       </c>
       <c r="G12" s="96"/>
     </row>
-    <row r="13" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7085,7 +7089,7 @@
       <c r="F13" s="100"/>
       <c r="G13" s="95"/>
     </row>
-    <row r="14" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7102,7 +7106,7 @@
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7119,7 +7123,7 @@
       </c>
       <c r="G15" s="95"/>
     </row>
-    <row r="16" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7137,7 +7141,7 @@
       <c r="G16" s="97"/>
       <c r="I16" s="94"/>
     </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7156,7 +7160,7 @@
       </c>
       <c r="G17" s="95"/>
     </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
         <v>169</v>
       </c>
@@ -7183,29 +7187,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="6" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7214,7 +7218,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -7222,7 +7226,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -7230,7 +7234,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -7254,7 +7258,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -7262,7 +7266,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -7273,7 +7277,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -7284,7 +7288,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -7295,7 +7299,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -7306,7 +7310,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -7317,7 +7321,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -7325,23 +7329,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -7361,17 +7365,17 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7381,8 +7385,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7394,8 +7398,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7403,33 +7407,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -7437,7 +7441,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7449,7 +7453,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7457,7 +7461,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7467,7 +7471,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7479,8 +7483,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -7488,7 +7492,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7502,7 +7506,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7516,7 +7520,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -7528,7 +7532,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7538,7 +7542,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7546,7 +7550,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -7554,7 +7558,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7564,7 +7568,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7576,7 +7580,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7586,7 +7590,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7596,7 +7600,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7633,18 +7637,18 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7654,8 +7658,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7667,8 +7671,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7678,33 +7682,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -7712,7 +7716,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7724,7 +7728,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7734,7 +7738,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7744,7 +7748,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7754,8 +7758,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -7763,7 +7767,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7777,7 +7781,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7789,7 +7793,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7799,7 +7803,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7809,7 +7813,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7817,7 +7821,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -7825,7 +7829,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7835,7 +7839,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7847,7 +7851,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7857,7 +7861,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7867,7 +7871,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7904,17 +7908,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7924,8 +7928,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7937,8 +7941,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7946,33 +7950,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -7983,7 +7987,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7995,7 +7999,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8003,7 +8007,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8013,7 +8017,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8021,8 +8025,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8030,7 +8034,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8044,7 +8048,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8056,7 +8060,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8066,7 +8070,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8076,7 +8080,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8084,7 +8088,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8092,7 +8096,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8106,7 +8110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8118,7 +8122,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8128,7 +8132,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8138,7 +8142,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -8152,7 +8156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -8191,20 +8195,20 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8222,7 +8226,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -8232,7 +8236,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8252,7 +8256,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -8262,7 +8266,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8278,7 +8282,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8293,7 +8297,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8307,7 +8311,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -8318,7 +8322,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8326,7 +8330,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8335,13 +8339,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8353,7 +8357,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8369,7 +8373,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8383,7 +8387,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8397,7 +8401,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8408,13 +8412,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8426,7 +8430,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8444,7 +8448,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8460,7 +8464,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8474,7 +8478,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8488,7 +8492,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8497,10 +8501,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8509,7 +8513,7 @@
       <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8524,7 +8528,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8537,7 +8541,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8548,7 +8552,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8559,7 +8563,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8596,19 +8600,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8622,13 +8626,13 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8644,13 +8648,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8662,7 +8666,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8672,7 +8676,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8682,13 +8686,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8698,7 +8702,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8708,13 +8712,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8726,7 +8730,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8740,7 +8744,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8752,7 +8756,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8764,7 +8768,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8775,13 +8779,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8793,7 +8797,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8811,7 +8815,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8827,7 +8831,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8841,7 +8845,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8855,7 +8859,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8864,10 +8868,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8876,7 +8880,7 @@
       <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8887,7 +8891,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8900,7 +8904,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8911,7 +8915,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8920,7 +8924,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8957,17 +8961,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8977,8 +8981,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8990,8 +8994,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8999,33 +9003,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -9033,7 +9037,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9043,7 +9047,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9051,7 +9055,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9059,7 +9063,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9069,8 +9073,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -9078,7 +9082,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9092,7 +9096,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9104,7 +9108,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9114,7 +9118,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9124,7 +9128,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9132,7 +9136,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -9140,7 +9144,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9150,7 +9154,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9162,7 +9166,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9172,7 +9176,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9180,7 +9184,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9217,19 +9221,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9242,12 +9246,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9262,12 +9266,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9280,7 +9284,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -9291,7 +9295,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -9300,12 +9304,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9316,7 +9320,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9327,12 +9331,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -9343,7 +9347,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9358,7 +9362,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9371,7 +9375,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9384,7 +9388,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9395,12 +9399,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -9411,7 +9415,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -9428,7 +9432,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9445,7 +9449,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -9456,7 +9460,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9467,7 +9471,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9478,22 +9482,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA0430-A4C0-2342-852B-C8F8C3F68C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B93275-1CBE-A742-B5D3-72049C281573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23120" windowHeight="16100" tabRatio="535" firstSheet="10" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="179">
   <si>
     <t>Fotographos</t>
   </si>
@@ -558,21 +558,6 @@
     <t>Actualizacion</t>
   </si>
   <si>
-    <t>MASTER</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>PESOS</t>
-  </si>
-  <si>
-    <t>AMEX</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -607,6 +592,15 @@
   </si>
   <si>
     <t>Agua</t>
+  </si>
+  <si>
+    <t>ENERGIA</t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -619,7 +613,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="mmm\ yy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -730,6 +724,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1079,7 +1079,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1399,6 +1399,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5104,9 +5117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA12" sqref="AA12"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6180,17 +6193,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6198,74 +6211,85 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="122" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="123" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="122" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="122"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="D2">
-        <v>1212060.96</v>
-      </c>
-      <c r="E2">
-        <v>551853.02</v>
-      </c>
-      <c r="F2">
-        <f>D2-(E2*2)</f>
-        <v>108354.91999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="126">
+        <v>267000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="126">
+        <v>117417.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="126">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="126">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="126">
+        <v>14472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="D3">
-        <v>1318678.6399999999</v>
-      </c>
-      <c r="E3">
-        <v>209.41</v>
-      </c>
-      <c r="F3">
-        <v>642850.06000000006</v>
-      </c>
-      <c r="G3">
-        <v>643635.34</v>
-      </c>
-      <c r="H3">
-        <v>549.71</v>
-      </c>
-      <c r="I3">
-        <f>D3-E3-F3-G3-H3</f>
-        <v>31434.119999999959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4">
-        <v>2175847.61</v>
-      </c>
-      <c r="E4">
-        <v>14885.46</v>
-      </c>
-      <c r="F4">
-        <f>D4-(E4*2)</f>
-        <v>2146076.69</v>
+      <c r="B7" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="126">
+        <f>SUM(C2:C6)</f>
+        <v>408922.77</v>
       </c>
     </row>
   </sheetData>
@@ -6309,25 +6333,25 @@
     </row>
     <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>149</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>163</v>
@@ -6341,7 +6365,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E3" s="70">
         <v>1</v>
@@ -6365,7 +6389,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E4" s="65">
         <v>2</v>
@@ -6384,7 +6408,7 @@
         <v>105</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E5" s="65">
         <v>3</v>
@@ -6747,7 +6771,7 @@
     </row>
     <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -6762,7 +6786,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="99" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C22" s="106">
         <f>F7</f>
@@ -6771,7 +6795,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="99" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C23" s="106">
         <f>+Expensas!Y7</f>
@@ -6796,7 +6820,7 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="99" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C26" s="106">
         <v>21866.68</v>
@@ -6804,7 +6828,7 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C27" s="107">
         <f>SUM(C22:C26)</f>
@@ -6848,16 +6872,16 @@
         <v>149</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F2" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>172</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -6868,7 +6892,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E3" s="70">
         <v>1</v>
@@ -6888,7 +6912,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E4" s="65">
         <v>2</v>
@@ -6908,7 +6932,7 @@
         <v>105</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E5" s="65">
         <v>3</v>
@@ -7158,7 +7182,7 @@
     </row>
     <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -7198,7 +7222,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45463</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B93275-1CBE-A742-B5D3-72049C281573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{06BA0430-A4C0-2342-852B-C8F8C3F68C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD0B25A5-84D7-4EF2-80FD-3A14B559C926}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23120" windowHeight="16100" tabRatio="535" firstSheet="10" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-25410" yWindow="2475" windowWidth="23235" windowHeight="13260" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="181">
   <si>
     <t>Fotographos</t>
   </si>
@@ -558,6 +558,21 @@
     <t>Actualizacion</t>
   </si>
   <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>PESOS</t>
+  </si>
+  <si>
+    <t>AMEX</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -592,15 +607,6 @@
   </si>
   <si>
     <t>Agua</t>
-  </si>
-  <si>
-    <t>ENERGIA</t>
-  </si>
-  <si>
-    <t>AGUA</t>
-  </si>
-  <si>
-    <t>$</t>
   </si>
 </sst>
 </file>
@@ -608,12 +614,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -724,12 +730,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1077,23 +1077,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,26 +1208,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1320,7 +1320,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1338,16 +1338,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1356,8 +1356,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1399,19 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1490,6 +1477,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1798,21 +1789,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1817,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1866,7 +1857,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1908,7 +1899,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -1948,7 +1939,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -1988,7 +1979,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2028,7 +2019,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2068,7 +2059,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2112,7 +2103,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2156,7 +2147,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2200,7 +2191,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2244,7 +2235,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2289,7 +2280,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2333,7 +2324,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2377,7 +2368,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2422,7 +2413,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2467,7 +2458,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2512,7 +2503,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2557,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2607,7 +2598,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2657,7 +2648,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2705,7 +2696,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2753,7 +2744,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2799,7 +2790,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2845,7 +2836,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2891,7 +2882,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -2935,7 +2926,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -2979,7 +2970,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3024,7 +3015,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3069,7 +3060,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3114,7 +3105,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3158,7 +3149,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3202,7 +3193,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3247,7 +3238,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3292,7 +3283,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3325,7 +3316,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3355,7 +3346,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3375,7 +3366,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3395,7 +3386,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3413,7 +3404,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3431,7 +3422,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3447,7 +3438,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3463,7 +3454,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3479,7 +3470,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3495,7 +3486,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3511,7 +3502,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3527,7 +3518,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3543,7 +3534,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3559,7 +3550,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3575,7 +3566,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3591,7 +3582,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3607,7 +3598,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3636,22 +3627,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.1640625" style="31"/>
+    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3664,12 +3655,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3684,12 +3675,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3702,7 +3693,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3711,7 +3702,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3720,12 +3711,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3734,7 +3725,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3743,12 +3734,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -3759,7 +3750,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3776,7 +3767,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3789,7 +3780,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3800,7 +3791,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3811,12 +3802,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -3827,7 +3818,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3844,7 +3835,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3855,7 +3846,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3864,7 +3855,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3875,7 +3866,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3886,22 +3877,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3928,19 +3919,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3953,12 +3944,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3973,12 +3964,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3991,7 +3982,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4000,7 +3991,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4009,12 +4000,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4025,7 +4016,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4036,12 +4027,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4052,7 +4043,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4069,7 +4060,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4080,7 +4071,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4091,7 +4082,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4099,12 +4090,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>47</v>
       </c>
@@ -4115,7 +4106,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4132,7 +4123,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4149,7 +4140,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4160,7 +4151,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4171,7 +4162,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4183,7 +4174,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4195,7 +4186,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4203,7 +4194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4211,7 +4202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4219,7 +4210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4251,19 +4242,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4276,12 +4267,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4296,12 +4287,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4314,7 +4305,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4325,7 +4316,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4334,12 +4325,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4353,7 +4344,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4367,12 +4358,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>129</v>
       </c>
@@ -4383,7 +4374,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4400,7 +4391,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4411,7 +4402,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4422,7 +4413,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4433,12 +4424,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>54</v>
       </c>
@@ -4449,7 +4440,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4466,7 +4457,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4483,7 +4474,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4494,7 +4485,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4507,7 +4498,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4520,13 +4511,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4554,19 +4545,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4579,12 +4570,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4599,12 +4590,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4615,7 +4606,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4624,7 +4615,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4633,12 +4624,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4647,7 +4638,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4656,12 +4647,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4672,7 +4663,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4689,7 +4680,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4700,7 +4691,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4713,7 +4704,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4723,12 +4714,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -4739,7 +4730,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4756,7 +4747,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4773,7 +4764,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4784,7 +4775,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4797,7 +4788,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4834,19 +4825,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4859,12 +4850,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4879,12 +4870,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4897,7 +4888,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4906,7 +4897,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4915,12 +4906,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4931,7 +4922,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4942,12 +4933,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -4958,7 +4949,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4975,7 +4966,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4986,7 +4977,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4999,7 +4990,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -5011,12 +5002,12 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -5027,7 +5018,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5044,7 +5035,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5061,7 +5052,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5074,7 +5065,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5087,7 +5078,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5115,46 +5106,48 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA7" sqref="AA7"/>
+      <selection pane="topRight" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" style="64" customWidth="1"/>
+    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="64" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="64"/>
+    <col min="28" max="28" width="12.375" style="64" customWidth="1"/>
+    <col min="29" max="29" width="13.5" style="64" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="121" t="s">
         <v>144</v>
       </c>
@@ -5199,8 +5192,12 @@
         <v>45444</v>
       </c>
       <c r="AA1" s="120"/>
-    </row>
-    <row r="2" spans="1:27" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB1" s="119">
+        <v>45474</v>
+      </c>
+      <c r="AC1" s="120"/>
+    </row>
+    <row r="2" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5273,8 +5270,14 @@
       <c r="AA2" s="80" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC2" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5332,8 +5335,12 @@
       <c r="AA3" s="82">
         <v>33673.120000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="82">
+        <v>31667.119999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5388,8 +5395,12 @@
       <c r="AA4" s="84">
         <v>33672.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="84">
+        <v>31666.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5444,8 +5455,12 @@
       <c r="AA5" s="84">
         <v>33673.050000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="84">
+        <v>31667.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5505,8 +5520,12 @@
       <c r="AA6" s="84">
         <v>129133.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="84">
+        <v>162253.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5567,8 +5586,12 @@
       <c r="AA7" s="86">
         <v>117417.77</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="86">
+        <v>147561.76999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5651,8 +5674,13 @@
         <f>SUM(Z3:AA7)</f>
         <v>347570.22000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="88">
+        <f>SUM(AB3:AC7)</f>
+        <v>404816.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5712,8 +5740,12 @@
       <c r="AA9" s="82">
         <v>54600.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="82">
+        <v>59150.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5775,8 +5807,12 @@
       <c r="AA10" s="84">
         <v>57600.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="84">
+        <v>62400.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5839,8 +5875,12 @@
       <c r="AA11" s="86">
         <v>55080.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="86">
+        <v>59670.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5923,8 +5963,13 @@
         <f>SUM(AA9:AA11)</f>
         <v>167280.41999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="88">
+        <f>SUM(AC9:AC11)</f>
+        <v>181220.41999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -6002,8 +6047,12 @@
       <c r="AA13" s="93">
         <v>198080.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="93">
+        <v>123800.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6077,8 +6126,10 @@
       <c r="AA14" s="93">
         <v>76800.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="93"/>
+    </row>
+    <row r="15" spans="1:29" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6152,8 +6203,10 @@
       <c r="AA15" s="90">
         <v>150000.01999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="90"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6190,9 +6243,14 @@
         <f>AA15+AA14+AA13+AA12+AA8</f>
         <v>939730.87999999989</v>
       </c>
+      <c r="AC16" s="92">
+        <f>AC15+AC14+AC13+AC12+AC8</f>
+        <v>709836.75</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="V1:W1"/>
@@ -6211,85 +6269,74 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" style="122" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="123" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="122" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="122"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="126">
-        <v>267000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="126">
-        <v>117417.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="126">
-        <v>3271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="124" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="126">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="126">
-        <v>14472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="124" t="s">
+      <c r="D2">
+        <v>1212060.96</v>
+      </c>
+      <c r="E2">
+        <v>551853.02</v>
+      </c>
+      <c r="F2">
+        <f>D2-(E2*2)</f>
+        <v>108354.91999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="126">
-        <f>SUM(C2:C6)</f>
-        <v>408922.77</v>
+      <c r="D3">
+        <v>1318678.6399999999</v>
+      </c>
+      <c r="E3">
+        <v>209.41</v>
+      </c>
+      <c r="F3">
+        <v>642850.06000000006</v>
+      </c>
+      <c r="G3">
+        <v>643635.34</v>
+      </c>
+      <c r="H3">
+        <v>549.71</v>
+      </c>
+      <c r="I3">
+        <f>D3-E3-F3-G3-H3</f>
+        <v>31434.119999999959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4">
+        <v>2175847.61</v>
+      </c>
+      <c r="E4">
+        <v>14885.46</v>
+      </c>
+      <c r="F4">
+        <f>D4-(E4*2)</f>
+        <v>2146076.69</v>
       </c>
     </row>
   </sheetData>
@@ -6305,23 +6352,23 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6331,33 +6378,33 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>149</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6365,7 +6412,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E3" s="70">
         <v>1</v>
@@ -6383,13 +6430,13 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E4" s="65">
         <v>2</v>
@@ -6402,13 +6449,13 @@
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E5" s="65">
         <v>3</v>
@@ -6430,7 +6477,7 @@
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6458,7 +6505,7 @@
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6486,7 +6533,7 @@
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6516,7 +6563,7 @@
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6544,7 +6591,7 @@
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6572,7 +6619,7 @@
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6602,7 +6649,7 @@
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6632,7 +6679,7 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6660,7 +6707,7 @@
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6688,7 +6735,7 @@
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6716,7 +6763,7 @@
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6744,7 +6791,7 @@
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6769,9 +6816,9 @@
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -6784,25 +6831,25 @@
       <c r="H18" s="70"/>
       <c r="I18" s="96"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C22" s="106">
         <f>F7</f>
         <v>267000</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="99" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C23" s="106">
         <f>+Expensas!Y7</f>
         <v>81897.77</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="99" t="s">
         <v>15</v>
       </c>
@@ -6810,7 +6857,7 @@
         <v>783.84</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="99" t="s">
         <v>14</v>
       </c>
@@ -6818,17 +6865,17 @@
         <v>15649.9</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="99" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C26" s="106">
         <v>21866.68</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="99" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C27" s="107">
         <f>SUM(C22:C26)</f>
@@ -6849,16 +6896,16 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6866,25 +6913,25 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="2:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6892,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E3" s="70">
         <v>1</v>
@@ -6906,13 +6953,13 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E4" s="65">
         <v>2</v>
@@ -6926,13 +6973,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E5" s="65">
         <v>3</v>
@@ -6946,7 +6993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6969,7 +7016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6992,7 +7039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -7017,7 +7064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -7037,7 +7084,7 @@
         <v>220600</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -7057,7 +7104,7 @@
         <v>188080</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -7076,7 +7123,7 @@
       </c>
       <c r="G11" s="95"/>
     </row>
-    <row r="12" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7095,7 +7142,7 @@
       </c>
       <c r="G12" s="96"/>
     </row>
-    <row r="13" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7109,7 +7156,7 @@
       <c r="F13" s="100"/>
       <c r="G13" s="95"/>
     </row>
-    <row r="14" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7126,7 +7173,7 @@
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7143,7 +7190,7 @@
       </c>
       <c r="G15" s="95"/>
     </row>
-    <row r="16" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7161,7 +7208,7 @@
       <c r="G16" s="97"/>
       <c r="I16" s="94"/>
     </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7180,9 +7227,9 @@
       </c>
       <c r="G17" s="95"/>
     </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -7207,29 +7254,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="6" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7238,7 +7285,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -7246,7 +7293,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -7254,7 +7301,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -7262,7 +7309,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -7270,7 +7317,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -7278,7 +7325,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -7286,7 +7333,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -7297,7 +7344,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -7308,7 +7355,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -7319,7 +7366,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -7330,7 +7377,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -7341,7 +7388,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -7349,23 +7396,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -7385,17 +7432,17 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7405,8 +7452,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7418,8 +7465,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7427,33 +7474,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -7461,7 +7508,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7473,7 +7520,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7481,7 +7528,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7491,7 +7538,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7503,8 +7550,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -7512,7 +7559,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7526,7 +7573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7540,7 +7587,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -7552,7 +7599,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7562,7 +7609,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7570,7 +7617,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -7578,7 +7625,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7588,7 +7635,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7600,7 +7647,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7610,7 +7657,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7620,7 +7667,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7657,18 +7704,18 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7678,8 +7725,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7691,8 +7738,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7702,33 +7749,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -7736,7 +7783,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7748,7 +7795,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7758,7 +7805,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7768,7 +7815,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7778,8 +7825,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -7787,7 +7834,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7801,7 +7848,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7813,7 +7860,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7823,7 +7870,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7833,7 +7880,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7841,7 +7888,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -7849,7 +7896,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7859,7 +7906,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7871,7 +7918,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7881,7 +7928,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7891,7 +7938,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7928,17 +7975,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7948,8 +7995,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7961,8 +8008,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7970,33 +8017,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8007,7 +8054,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8019,7 +8066,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8027,7 +8074,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8037,7 +8084,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8045,8 +8092,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8054,7 +8101,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8068,7 +8115,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8080,7 +8127,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8090,7 +8137,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8100,7 +8147,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8108,7 +8155,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8116,7 +8163,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8130,7 +8177,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8142,7 +8189,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8152,7 +8199,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8162,7 +8209,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -8176,7 +8223,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -8215,20 +8262,20 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8246,7 +8293,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -8256,7 +8303,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8276,7 +8323,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -8286,7 +8333,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8302,7 +8349,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8317,7 +8364,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8331,7 +8378,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -8342,7 +8389,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8350,7 +8397,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8359,13 +8406,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8377,7 +8424,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8393,7 +8440,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8407,7 +8454,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8421,7 +8468,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8432,13 +8479,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8450,7 +8497,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8468,7 +8515,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8484,7 +8531,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8498,7 +8545,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8512,7 +8559,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8521,10 +8568,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8533,7 +8580,7 @@
       <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8548,7 +8595,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8561,7 +8608,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8572,7 +8619,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8583,7 +8630,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8620,19 +8667,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8646,13 +8693,13 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8668,13 +8715,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8686,7 +8733,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8696,7 +8743,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8706,13 +8753,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8722,7 +8769,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8732,13 +8779,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -8750,7 +8797,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8764,7 +8811,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8776,7 +8823,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8788,7 +8835,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8799,13 +8846,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -8817,7 +8864,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8835,7 +8882,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8851,7 +8898,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8865,7 +8912,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8879,7 +8926,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8888,10 +8935,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -8900,7 +8947,7 @@
       <c r="D26" s="118"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8911,7 +8958,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8924,7 +8971,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8935,7 +8982,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8944,7 +8991,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8981,17 +9028,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9001,8 +9048,8 @@
       <c r="C2" s="109"/>
       <c r="D2" s="110"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9014,8 +9061,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9023,33 +9070,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>99</v>
       </c>
@@ -9057,7 +9104,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="115"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9067,7 +9114,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9075,7 +9122,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9083,7 +9130,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9093,8 +9140,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>83</v>
       </c>
@@ -9102,7 +9149,7 @@
       <c r="C19" s="117"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9116,7 +9163,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9128,7 +9175,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9138,7 +9185,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9148,7 +9195,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9156,7 +9203,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>100</v>
       </c>
@@ -9164,7 +9211,7 @@
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9174,7 +9221,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9186,7 +9233,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9196,7 +9243,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9204,7 +9251,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9241,19 +9288,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9266,12 +9313,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9286,12 +9333,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9304,7 +9351,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -9315,7 +9362,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -9324,12 +9371,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9340,7 +9387,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9351,12 +9398,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>26</v>
       </c>
@@ -9367,7 +9414,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9382,7 +9429,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9395,7 +9442,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9408,7 +9455,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9419,12 +9466,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>14</v>
       </c>
@@ -9435,7 +9482,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -9452,7 +9499,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9469,7 +9516,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -9480,7 +9527,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9491,7 +9538,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9502,22 +9549,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{06BA0430-A4C0-2342-852B-C8F8C3F68C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD0B25A5-84D7-4EF2-80FD-3A14B559C926}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{06BA0430-A4C0-2342-852B-C8F8C3F68C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27AF2C7D-8237-46E6-B5D1-4C1E7987AF10}"/>
   <bookViews>
-    <workbookView xWindow="-25410" yWindow="2475" windowWidth="23235" windowHeight="13260" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-24600" yWindow="1200" windowWidth="23235" windowHeight="13260" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="186">
   <si>
     <t>Fotographos</t>
   </si>
@@ -558,21 +558,6 @@
     <t>Actualizacion</t>
   </si>
   <si>
-    <t>MASTER</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>PESOS</t>
-  </si>
-  <si>
-    <t>AMEX</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -607,6 +592,36 @@
   </si>
   <si>
     <t>Agua</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>ENERGIA</t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>Fito</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Chino</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Albarenga</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>Joly</t>
   </si>
 </sst>
 </file>
@@ -619,7 +634,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="mmm\ yy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -730,6 +745,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1079,7 +1100,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1358,6 +1379,28 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,10 +1520,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3646,11 +3685,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -3664,10 +3703,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -3740,12 +3779,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -3808,12 +3847,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -3935,11 +3974,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -3953,10 +3992,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4033,12 +4072,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4096,12 +4135,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4258,11 +4297,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4276,10 +4315,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4364,12 +4403,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4430,12 +4469,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4561,11 +4600,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4579,10 +4618,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4653,12 +4692,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4720,12 +4759,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4841,11 +4880,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4859,10 +4898,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>67</v>
       </c>
@@ -4939,12 +4978,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -5008,12 +5047,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -5106,11 +5145,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC12" sqref="AC12"/>
+      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5147,57 +5186,57 @@
     <col min="30" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="121" t="s">
+    <row r="1" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="119">
+      <c r="G1" s="128"/>
+      <c r="H1" s="127">
         <v>45170</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="119">
+      <c r="I1" s="128"/>
+      <c r="J1" s="127">
         <v>45200</v>
       </c>
-      <c r="K1" s="120"/>
-      <c r="L1" s="119">
+      <c r="K1" s="128"/>
+      <c r="L1" s="127">
         <v>45231</v>
       </c>
-      <c r="M1" s="120"/>
-      <c r="N1" s="119">
+      <c r="M1" s="128"/>
+      <c r="N1" s="127">
         <v>45261</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="119">
+      <c r="O1" s="128"/>
+      <c r="P1" s="127">
         <v>45292</v>
       </c>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="119">
+      <c r="Q1" s="128"/>
+      <c r="R1" s="127">
         <v>45323</v>
       </c>
-      <c r="S1" s="120"/>
-      <c r="T1" s="119">
+      <c r="S1" s="128"/>
+      <c r="T1" s="127">
         <v>45352</v>
       </c>
-      <c r="U1" s="120"/>
-      <c r="V1" s="119">
+      <c r="U1" s="128"/>
+      <c r="V1" s="127">
         <v>45383</v>
       </c>
-      <c r="W1" s="120"/>
-      <c r="X1" s="119">
+      <c r="W1" s="128"/>
+      <c r="X1" s="127">
         <v>45413</v>
       </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="119">
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="127">
         <v>45444</v>
       </c>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="119">
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="127">
         <v>45474</v>
       </c>
-      <c r="AC1" s="120"/>
-    </row>
-    <row r="2" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC1" s="128"/>
+    </row>
+    <row r="2" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5277,7 +5316,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5339,8 +5378,9 @@
       <c r="AC3" s="82">
         <v>31667.119999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="113"/>
+    </row>
+    <row r="4" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5400,7 +5440,7 @@
         <v>31666.57</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5460,7 +5500,7 @@
         <v>31667.05</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5525,7 +5565,7 @@
         <v>162253.71</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5591,7 +5631,7 @@
         <v>147561.76999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5669,18 +5709,22 @@
         <f>SUM(X3:Y7)</f>
         <v>230482.22000000003</v>
       </c>
-      <c r="Z8" s="87"/>
+      <c r="Z8" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="AA8" s="88">
         <f>SUM(Z3:AA7)</f>
         <v>347570.22000000003</v>
       </c>
-      <c r="AB8" s="87"/>
+      <c r="AB8" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="AC8" s="88">
         <f>SUM(AB3:AC7)</f>
         <v>404816.22</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5745,7 +5789,7 @@
         <v>59150.03</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5812,7 +5856,7 @@
         <v>62400.18</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5880,7 +5924,7 @@
         <v>59670.21</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5958,18 +6002,22 @@
         <f>SUM(Y9:Y11)</f>
         <v>128986.41999999998</v>
       </c>
-      <c r="Z12" s="87"/>
+      <c r="Z12" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="AA12" s="88">
         <f>SUM(AA9:AA11)</f>
         <v>167280.41999999998</v>
       </c>
-      <c r="AB12" s="87"/>
+      <c r="AB12" s="87" t="s">
+        <v>150</v>
+      </c>
       <c r="AC12" s="88">
         <f>SUM(AC9:AC11)</f>
         <v>181220.41999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -6043,16 +6091,20 @@
       <c r="Y13" s="93">
         <v>272360.11</v>
       </c>
-      <c r="Z13" s="89"/>
+      <c r="Z13" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="AA13" s="93">
         <v>198080.11</v>
       </c>
-      <c r="AB13" s="89"/>
+      <c r="AB13" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="AC13" s="93">
         <v>123800.11</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6122,14 +6174,20 @@
       <c r="Y14" s="93">
         <v>68000.11</v>
       </c>
-      <c r="Z14" s="89"/>
+      <c r="Z14" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="AA14" s="93">
         <v>76800.11</v>
       </c>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="93"/>
-    </row>
-    <row r="15" spans="1:29" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB14" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC14" s="93">
+        <v>76800.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6199,14 +6257,20 @@
       <c r="Y15" s="90">
         <v>150000.01999999999</v>
       </c>
-      <c r="Z15" s="89"/>
+      <c r="Z15" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="AA15" s="90">
         <v>150000.01999999999</v>
       </c>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="90"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB15" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC15" s="90">
+        <v>150000.01999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6245,16 +6309,11 @@
       </c>
       <c r="AC16" s="92">
         <f>AC15+AC14+AC13+AC12+AC8</f>
-        <v>709836.75</v>
+        <v>936636.87999999989</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
@@ -6262,6 +6321,11 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6269,74 +6333,85 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="109" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="108" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="108"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="D2">
-        <v>1212060.96</v>
-      </c>
-      <c r="E2">
-        <v>551853.02</v>
-      </c>
-      <c r="F2">
-        <f>D2-(E2*2)</f>
-        <v>108354.91999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="112">
+        <v>267000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="112">
+        <v>117417.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="112">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="112">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="112">
+        <v>14472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="D3">
-        <v>1318678.6399999999</v>
-      </c>
-      <c r="E3">
-        <v>209.41</v>
-      </c>
-      <c r="F3">
-        <v>642850.06000000006</v>
-      </c>
-      <c r="G3">
-        <v>643635.34</v>
-      </c>
-      <c r="H3">
-        <v>549.71</v>
-      </c>
-      <c r="I3">
-        <f>D3-E3-F3-G3-H3</f>
-        <v>31434.119999999959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4">
-        <v>2175847.61</v>
-      </c>
-      <c r="E4">
-        <v>14885.46</v>
-      </c>
-      <c r="F4">
-        <f>D4-(E4*2)</f>
-        <v>2146076.69</v>
+      <c r="B7" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="112">
+        <f>SUM(C2:C6)</f>
+        <v>408922.77</v>
       </c>
     </row>
   </sheetData>
@@ -6348,8 +6423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F33156-2118-7347-88EF-33566C005459}">
   <dimension ref="B1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6380,25 +6455,25 @@
     </row>
     <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>149</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>163</v>
@@ -6412,7 +6487,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E3" s="70">
         <v>1</v>
@@ -6436,7 +6511,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E4" s="65">
         <v>2</v>
@@ -6455,7 +6530,7 @@
         <v>105</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E5" s="65">
         <v>3</v>
@@ -6818,7 +6893,7 @@
     </row>
     <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -6833,7 +6908,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C22" s="106">
         <f>F7</f>
@@ -6842,7 +6917,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="99" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C23" s="106">
         <f>+Expensas!Y7</f>
@@ -6867,7 +6942,7 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="99" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C26" s="106">
         <v>21866.68</v>
@@ -6875,7 +6950,7 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="99" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C27" s="107">
         <f>SUM(C22:C26)</f>
@@ -6890,10 +6965,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3767BBE3-E496-124D-A78A-1321E9EF59D3}">
-  <dimension ref="B1:I18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6905,7 +6980,7 @@
     <col min="7" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6913,25 +6988,31 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="2:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F2" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="95" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>180</v>
+      </c>
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6939,7 +7020,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E3" s="70">
         <v>1</v>
@@ -6953,13 +7034,13 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E4" s="65">
         <v>2</v>
@@ -6969,17 +7050,17 @@
         <v>0</v>
       </c>
       <c r="G4" s="95"/>
-      <c r="I4" s="65">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>179</v>
+      </c>
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E5" s="65">
         <v>3</v>
@@ -6989,11 +7070,14 @@
         <v>25000</v>
       </c>
       <c r="G5" s="95"/>
-      <c r="I5" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="65">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>179</v>
+      </c>
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -7012,11 +7096,14 @@
         <f>+F6+Expensas!Z6</f>
         <v>179000</v>
       </c>
-      <c r="I6" s="65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="65">
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
+        <v>181</v>
+      </c>
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -7035,11 +7122,11 @@
         <f>+F7+Expensas!Z7</f>
         <v>267000</v>
       </c>
-      <c r="I7" s="65">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>182</v>
+      </c>
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -7060,11 +7147,14 @@
         <f>+F8+Expensas!Z9</f>
         <v>204600</v>
       </c>
-      <c r="I8" s="65">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="115">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>183</v>
+      </c>
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -7083,8 +7173,15 @@
         <f>+F9+Expensas!Z10</f>
         <v>220600</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="115">
+        <v>225400</v>
+      </c>
+      <c r="I9" s="114"/>
+    </row>
+    <row r="10" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65" t="s">
+        <v>184</v>
+      </c>
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -7103,8 +7200,15 @@
         <f>+F10+Expensas!Z11</f>
         <v>188080</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="115">
+        <f>+F10+Expensas!AC11</f>
+        <v>192670.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="65" t="s">
+        <v>185</v>
+      </c>
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -7122,8 +7226,11 @@
         <v>130000</v>
       </c>
       <c r="G11" s="95"/>
-    </row>
-    <row r="12" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="65">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7142,7 +7249,7 @@
       </c>
       <c r="G12" s="96"/>
     </row>
-    <row r="13" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7156,7 +7263,7 @@
       <c r="F13" s="100"/>
       <c r="G13" s="95"/>
     </row>
-    <row r="14" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7173,7 +7280,7 @@
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7190,7 +7297,7 @@
       </c>
       <c r="G15" s="95"/>
     </row>
-    <row r="16" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7229,7 +7336,7 @@
     </row>
     <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -7269,7 +7376,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45474</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7446,21 +7553,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -7501,12 +7608,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -7552,12 +7659,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -7618,12 +7725,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
@@ -7719,21 +7826,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -7776,12 +7883,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -7827,12 +7934,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -7889,12 +7996,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
@@ -7989,21 +8096,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8044,12 +8151,12 @@
     </row>
     <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="18" t="s">
         <v>107</v>
       </c>
@@ -8094,12 +8201,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -8156,12 +8263,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
@@ -8279,11 +8386,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
       <c r="F2" s="56" t="s">
         <v>125</v>
       </c>
@@ -8307,10 +8414,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8413,12 +8520,12 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -8486,12 +8593,12 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -8572,12 +8679,12 @@
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8683,11 +8790,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -8703,10 +8810,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8786,12 +8893,12 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -8853,12 +8960,12 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -8939,12 +9046,12 @@
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9042,21 +9149,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9097,12 +9204,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -9142,12 +9249,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -9204,12 +9311,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
@@ -9304,11 +9411,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -9322,10 +9429,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9404,12 +9511,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -9472,12 +9579,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{06BA0430-A4C0-2342-852B-C8F8C3F68C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27AF2C7D-8237-46E6-B5D1-4C1E7987AF10}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24600" yWindow="1200" windowWidth="23235" windowHeight="13260" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15680" windowHeight="16100" tabRatio="535" firstSheet="12" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="187">
   <si>
     <t>Fotographos</t>
   </si>
@@ -622,6 +622,9 @@
   </si>
   <si>
     <t>Joly</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1098,23 +1101,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1126,7 +1129,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1229,26 +1232,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1341,7 +1344,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1359,16 +1362,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1377,8 +1380,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1828,21 +1831,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="16.375" customWidth="1"/>
-    <col min="17" max="17" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1896,7 +1899,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1938,7 +1941,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -1978,7 +1981,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -2018,7 +2021,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2058,7 +2061,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2098,7 +2101,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2142,7 +2145,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2186,7 +2189,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2230,7 +2233,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2274,7 +2277,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2319,7 +2322,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2363,7 +2366,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2407,7 +2410,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2452,7 +2455,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2497,7 +2500,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2542,7 +2545,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2587,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2637,7 +2640,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2687,7 +2690,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2735,7 +2738,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2783,7 +2786,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2829,7 +2832,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2875,7 +2878,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2921,7 +2924,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -2965,7 +2968,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -3009,7 +3012,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3054,7 +3057,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3099,7 +3102,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3144,7 +3147,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3188,7 +3191,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3232,7 +3235,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3277,7 +3280,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3322,7 +3325,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3355,7 +3358,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3385,7 +3388,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3405,7 +3408,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3425,7 +3428,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3443,7 +3446,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3461,7 +3464,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3477,7 +3480,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3493,7 +3496,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3509,7 +3512,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3525,7 +3528,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3541,7 +3544,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3557,7 +3560,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3573,7 +3576,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3589,7 +3592,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3605,7 +3608,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3621,7 +3624,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3637,7 +3640,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3666,22 +3669,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.125" style="31"/>
+    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3694,12 +3697,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3714,12 +3717,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3732,7 +3735,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3741,7 +3744,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3750,12 +3753,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3764,7 +3767,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3773,12 +3776,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
@@ -3789,7 +3792,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3806,7 +3809,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3819,7 +3822,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3830,7 +3833,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3841,12 +3844,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>14</v>
       </c>
@@ -3857,7 +3860,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3874,7 +3877,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3885,7 +3888,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3894,7 +3897,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3905,7 +3908,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3916,22 +3919,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3958,19 +3961,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3983,12 +3986,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4003,12 +4006,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4021,7 +4024,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4030,7 +4033,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4039,12 +4042,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4055,7 +4058,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4066,12 +4069,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
@@ -4082,7 +4085,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4099,7 +4102,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4110,7 +4113,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4121,7 +4124,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4129,12 +4132,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>47</v>
       </c>
@@ -4145,7 +4148,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4162,7 +4165,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4179,7 +4182,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4190,7 +4193,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4201,7 +4204,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4213,7 +4216,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4281,19 +4284,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4306,12 +4309,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4326,12 +4329,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4344,7 +4347,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4355,7 +4358,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4364,12 +4367,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4383,7 +4386,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4397,12 +4400,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>129</v>
       </c>
@@ -4413,7 +4416,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4430,7 +4433,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4441,7 +4444,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4452,7 +4455,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4463,12 +4466,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>54</v>
       </c>
@@ -4479,7 +4482,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4496,7 +4499,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4513,7 +4516,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4524,7 +4527,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4537,7 +4540,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4550,13 +4553,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4584,19 +4587,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4609,12 +4612,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4629,12 +4632,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4645,7 +4648,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4654,7 +4657,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4663,12 +4666,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4677,7 +4680,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4686,12 +4689,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
@@ -4702,7 +4705,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4719,7 +4722,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4730,7 +4733,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4743,7 +4746,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4753,12 +4756,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>14</v>
       </c>
@@ -4769,7 +4772,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4786,7 +4789,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4803,7 +4806,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4814,7 +4817,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4827,7 +4830,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4864,19 +4867,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4889,12 +4892,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4909,12 +4912,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4927,7 +4930,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4936,7 +4939,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4945,12 +4948,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4961,7 +4964,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4972,12 +4975,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
@@ -4988,7 +4991,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -5005,7 +5008,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -5016,7 +5019,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -5029,7 +5032,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -5041,12 +5044,12 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>14</v>
       </c>
@@ -5057,7 +5060,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5074,7 +5077,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5091,7 +5094,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5104,7 +5107,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5117,7 +5120,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5147,46 +5150,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
+      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="64" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
-    <col min="28" max="28" width="12.375" style="64" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" style="64" customWidth="1"/>
     <col min="29" max="29" width="13.5" style="64" customWidth="1"/>
-    <col min="30" max="16384" width="10.875" style="64"/>
+    <col min="30" max="16384" width="10.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="129" t="s">
         <v>144</v>
       </c>
@@ -5236,7 +5239,7 @@
       </c>
       <c r="AC1" s="128"/>
     </row>
-    <row r="2" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5380,7 +5383,7 @@
       </c>
       <c r="AE3" s="113"/>
     </row>
-    <row r="4" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5440,7 +5443,7 @@
         <v>31666.57</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5500,7 +5503,7 @@
         <v>31667.05</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5565,7 +5568,7 @@
         <v>162253.71</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5631,7 +5634,7 @@
         <v>147561.76999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>404816.22</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>59150.03</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5856,7 +5859,7 @@
         <v>62400.18</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5924,7 +5927,7 @@
         <v>59670.21</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>181220.41999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>123800.11</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>76800.11</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>150000.01999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6335,19 +6338,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="108" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="109" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="109" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="108" customWidth="1"/>
     <col min="4" max="16384" width="11" style="108"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="110" t="s">
         <v>167</v>
       </c>
@@ -6358,7 +6361,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="110" t="s">
         <v>174</v>
       </c>
@@ -6366,10 +6369,11 @@
         <v>176</v>
       </c>
       <c r="C3" s="112">
-        <v>117417.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Expensas!AC7</f>
+        <v>147561.76999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="110" t="s">
         <v>26</v>
       </c>
@@ -6377,10 +6381,10 @@
         <v>176</v>
       </c>
       <c r="C4" s="112">
-        <v>3271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
         <v>177</v>
       </c>
@@ -6388,10 +6392,10 @@
         <v>176</v>
       </c>
       <c r="C5" s="112">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="110" t="s">
         <v>178</v>
       </c>
@@ -6399,10 +6403,10 @@
         <v>176</v>
       </c>
       <c r="C6" s="112">
-        <v>14472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+        <v>22631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="110" t="s">
         <v>164</v>
       </c>
@@ -6411,7 +6415,7 @@
       </c>
       <c r="C7" s="112">
         <f>SUM(C2:C6)</f>
-        <v>408922.77</v>
+        <v>453225.77</v>
       </c>
     </row>
   </sheetData>
@@ -6423,27 +6427,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F33156-2118-7347-88EF-33566C005459}">
   <dimension ref="B1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6453,7 +6457,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98" t="s">
         <v>173</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6504,8 +6508,11 @@
       <c r="I3" s="96">
         <v>45505</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6524,7 +6531,7 @@
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6552,7 +6559,7 @@
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6574,13 +6581,16 @@
       </c>
       <c r="I6" s="95">
         <v>45505</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>186</v>
       </c>
       <c r="N6" s="100"/>
       <c r="O6" s="100"/>
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6608,7 +6618,7 @@
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6632,13 +6642,16 @@
       </c>
       <c r="I8" s="96">
         <v>45505</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>186</v>
       </c>
       <c r="N8" s="100"/>
       <c r="O8" s="100"/>
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6666,7 +6679,7 @@
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6694,7 +6707,7 @@
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6717,14 +6730,14 @@
         <v>163</v>
       </c>
       <c r="I11" s="95">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="N11" s="100"/>
       <c r="O11" s="100"/>
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6754,7 +6767,7 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6782,7 +6795,7 @@
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6810,7 +6823,7 @@
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6831,14 +6844,14 @@
         <v>163</v>
       </c>
       <c r="I15" s="95">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="N15" s="100"/>
       <c r="O15" s="100"/>
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6860,13 +6873,16 @@
       </c>
       <c r="I16" s="97">
         <v>45505</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>186</v>
       </c>
       <c r="N16" s="100"/>
       <c r="O16" s="100"/>
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6891,7 +6907,7 @@
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
         <v>164</v>
       </c>
@@ -6906,7 +6922,7 @@
       <c r="H18" s="70"/>
       <c r="I18" s="96"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="99" t="s">
         <v>167</v>
       </c>
@@ -6915,7 +6931,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="99" t="s">
         <v>174</v>
       </c>
@@ -6924,7 +6940,7 @@
         <v>81897.77</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="99" t="s">
         <v>15</v>
       </c>
@@ -6932,7 +6948,7 @@
         <v>783.84</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="99" t="s">
         <v>14</v>
       </c>
@@ -6940,7 +6956,7 @@
         <v>15649.9</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="99" t="s">
         <v>175</v>
       </c>
@@ -6948,7 +6964,7 @@
         <v>21866.68</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
         <v>164</v>
       </c>
@@ -6971,16 +6987,16 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6988,7 +7004,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -7009,7 +7025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="65" t="s">
         <v>180</v>
       </c>
@@ -7034,7 +7050,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -7051,7 +7067,7 @@
       </c>
       <c r="G4" s="95"/>
     </row>
-    <row r="5" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
         <v>179</v>
       </c>
@@ -7074,7 +7090,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="s">
         <v>179</v>
       </c>
@@ -7100,7 +7116,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>181</v>
       </c>
@@ -7123,7 +7139,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>182</v>
       </c>
@@ -7151,7 +7167,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>183</v>
       </c>
@@ -7178,7 +7194,7 @@
       </c>
       <c r="I9" s="114"/>
     </row>
-    <row r="10" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>184</v>
       </c>
@@ -7205,7 +7221,7 @@
         <v>192670.21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>185</v>
       </c>
@@ -7230,7 +7246,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7249,7 +7265,7 @@
       </c>
       <c r="G12" s="96"/>
     </row>
-    <row r="13" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7263,7 +7279,7 @@
       <c r="F13" s="100"/>
       <c r="G13" s="95"/>
     </row>
-    <row r="14" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7280,7 +7296,7 @@
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7297,7 +7313,7 @@
       </c>
       <c r="G15" s="95"/>
     </row>
-    <row r="16" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7315,7 +7331,7 @@
       <c r="G16" s="97"/>
       <c r="I16" s="94"/>
     </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7334,7 +7350,7 @@
       </c>
       <c r="G17" s="95"/>
     </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
         <v>164</v>
       </c>
@@ -7361,29 +7377,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="8"/>
+    <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7392,7 +7408,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -7400,7 +7416,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -7408,7 +7424,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -7416,7 +7432,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -7424,7 +7440,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -7432,7 +7448,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -7440,7 +7456,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -7451,7 +7467,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -7462,7 +7478,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -7473,7 +7489,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -7484,7 +7500,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -7495,7 +7511,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -7503,23 +7519,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -7539,17 +7555,17 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7559,8 +7575,8 @@
       <c r="C2" s="117"/>
       <c r="D2" s="118"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7572,8 +7588,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7581,33 +7597,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
@@ -7615,7 +7631,7 @@
       <c r="C13" s="122"/>
       <c r="D13" s="123"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7627,7 +7643,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7635,7 +7651,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7645,7 +7661,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7657,8 +7673,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
@@ -7666,7 +7682,7 @@
       <c r="C19" s="125"/>
       <c r="D19" s="126"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7680,7 +7696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7694,7 +7710,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -7706,7 +7722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7716,7 +7732,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7724,7 +7740,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
@@ -7732,7 +7748,7 @@
       <c r="C26" s="125"/>
       <c r="D26" s="126"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7742,7 +7758,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7754,7 +7770,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7764,7 +7780,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7774,7 +7790,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7811,18 +7827,18 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7832,8 +7848,8 @@
       <c r="C2" s="117"/>
       <c r="D2" s="118"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7845,8 +7861,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7856,33 +7872,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
@@ -7890,7 +7906,7 @@
       <c r="C13" s="122"/>
       <c r="D13" s="123"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7902,7 +7918,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7912,7 +7928,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7922,7 +7938,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7932,8 +7948,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
@@ -7941,7 +7957,7 @@
       <c r="C19" s="125"/>
       <c r="D19" s="126"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7955,7 +7971,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7967,7 +7983,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7977,7 +7993,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7987,7 +8003,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7995,7 +8011,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
@@ -8003,7 +8019,7 @@
       <c r="C26" s="125"/>
       <c r="D26" s="126"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8013,7 +8029,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8025,7 +8041,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8035,7 +8051,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8045,7 +8061,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8082,17 +8098,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8102,8 +8118,8 @@
       <c r="C2" s="117"/>
       <c r="D2" s="118"/>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8115,8 +8131,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8124,33 +8140,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>99</v>
       </c>
@@ -8161,7 +8177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8173,7 +8189,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8181,7 +8197,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8191,7 +8207,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8199,8 +8215,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
@@ -8208,7 +8224,7 @@
       <c r="C19" s="125"/>
       <c r="D19" s="126"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8222,7 +8238,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8234,7 +8250,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8244,7 +8260,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8254,7 +8270,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8262,7 +8278,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
@@ -8270,7 +8286,7 @@
       <c r="C26" s="125"/>
       <c r="D26" s="126"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8284,7 +8300,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8296,7 +8312,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8306,7 +8322,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8316,7 +8332,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -8330,7 +8346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -8369,20 +8385,20 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.125" style="31"/>
+    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8400,7 +8416,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -8410,7 +8426,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8430,7 +8446,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -8440,7 +8456,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8456,7 +8472,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8471,7 +8487,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8485,7 +8501,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -8496,7 +8512,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8504,7 +8520,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8513,13 +8529,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>99</v>
       </c>
@@ -8531,7 +8547,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8547,7 +8563,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8561,7 +8577,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8575,7 +8591,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8586,13 +8602,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
@@ -8604,7 +8620,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8622,7 +8638,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8638,7 +8654,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8652,7 +8668,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8666,7 +8682,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8675,10 +8691,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
@@ -8687,7 +8703,7 @@
       <c r="D26" s="126"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8702,7 +8718,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8715,7 +8731,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8726,7 +8742,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8737,7 +8753,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8774,19 +8790,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8800,13 +8816,13 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8822,13 +8838,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8840,7 +8856,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8850,7 +8866,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8860,13 +8876,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8876,7 +8892,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8886,13 +8902,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>99</v>
       </c>
@@ -8904,7 +8920,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8918,7 +8934,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8930,7 +8946,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8942,7 +8958,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8953,13 +8969,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
@@ -8971,7 +8987,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8989,7 +9005,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9005,7 +9021,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9019,7 +9035,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9033,7 +9049,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9042,10 +9058,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
@@ -9054,7 +9070,7 @@
       <c r="D26" s="126"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9065,7 +9081,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9078,7 +9094,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9089,7 +9105,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9098,7 +9114,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9135,17 +9151,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9155,8 +9171,8 @@
       <c r="C2" s="117"/>
       <c r="D2" s="118"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9168,8 +9184,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9177,33 +9193,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>99</v>
       </c>
@@ -9211,7 +9227,7 @@
       <c r="C13" s="122"/>
       <c r="D13" s="123"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9221,7 +9237,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9229,7 +9245,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9237,7 +9253,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9247,8 +9263,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>83</v>
       </c>
@@ -9256,7 +9272,7 @@
       <c r="C19" s="125"/>
       <c r="D19" s="126"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9270,7 +9286,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9282,7 +9298,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9292,7 +9308,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9302,7 +9318,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9310,7 +9326,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
         <v>100</v>
       </c>
@@ -9318,7 +9334,7 @@
       <c r="C26" s="125"/>
       <c r="D26" s="126"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9328,7 +9344,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9340,7 +9356,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9350,7 +9366,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9358,7 +9374,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9395,19 +9411,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9420,12 +9436,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9440,12 +9456,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9458,7 +9474,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -9469,7 +9485,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -9478,12 +9494,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9494,7 +9510,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9505,12 +9521,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>26</v>
       </c>
@@ -9521,7 +9537,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9536,7 +9552,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9549,7 +9565,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9562,7 +9578,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9573,12 +9589,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="s">
         <v>14</v>
       </c>
@@ -9589,7 +9605,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -9606,7 +9622,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9623,7 +9639,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -9634,7 +9650,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9645,7 +9661,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9656,22 +9672,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
     </row>
   </sheetData>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E7CB444-360D-451C-B69C-A2FB5AFCF15C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15680" windowHeight="16100" tabRatio="535" firstSheet="12" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="187">
   <si>
     <t>Fotographos</t>
   </si>
@@ -632,10 +632,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1099,25 +1099,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1129,7 +1129,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,28 +1232,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1344,7 +1344,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1362,16 +1362,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1380,8 +1380,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1395,9 +1395,6 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,8 +1445,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1525,8 +1522,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1831,21 +1832,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1899,7 +1900,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1941,7 +1942,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -1981,7 +1982,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -2021,7 +2022,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2061,7 +2062,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2101,7 +2102,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2145,7 +2146,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2189,7 +2190,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2233,7 +2234,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2277,7 +2278,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2322,7 +2323,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2366,7 +2367,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2410,7 +2411,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2455,7 +2456,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2500,7 +2501,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2545,7 +2546,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2590,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2640,7 +2641,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2690,7 +2691,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2738,7 +2739,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2786,7 +2787,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2832,7 +2833,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2878,7 +2879,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2924,7 +2925,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -2968,7 +2969,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -3012,7 +3013,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3057,7 +3058,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3102,7 +3103,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3147,7 +3148,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3191,7 +3192,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3235,7 +3236,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3280,7 +3281,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3325,7 +3326,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3358,7 +3359,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3388,7 +3389,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3408,7 +3409,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3428,7 +3429,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3446,7 +3447,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3464,7 +3465,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3480,7 +3481,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3496,7 +3497,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3512,7 +3513,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3528,7 +3529,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3544,7 +3545,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3560,7 +3561,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3576,7 +3577,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3592,7 +3593,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3608,7 +3609,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3624,7 +3625,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3640,7 +3641,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3669,47 +3670,47 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.1640625" style="31"/>
+    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -3717,12 +3718,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3735,7 +3736,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3744,7 +3745,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3753,12 +3754,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3767,7 +3768,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3776,23 +3777,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3809,7 +3810,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3822,7 +3823,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3833,7 +3834,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3844,23 +3845,23 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3877,7 +3878,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3888,7 +3889,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3897,7 +3898,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3908,7 +3909,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3919,22 +3920,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3961,44 +3962,44 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4006,12 +4007,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4024,7 +4025,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4033,7 +4034,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4042,12 +4043,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4058,7 +4059,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4069,23 +4070,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4102,7 +4103,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4113,7 +4114,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4124,7 +4125,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4132,23 +4133,23 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4165,7 +4166,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4193,7 +4194,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4204,7 +4205,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4216,7 +4217,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4284,44 +4285,44 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4329,12 +4330,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4347,7 +4348,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4358,7 +4359,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4367,12 +4368,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4386,7 +4387,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4400,23 +4401,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4433,7 +4434,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4444,7 +4445,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4455,7 +4456,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4466,23 +4467,23 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4499,7 +4500,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4516,7 +4517,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4527,7 +4528,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4540,7 +4541,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4553,13 +4554,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4587,44 +4588,44 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4632,12 +4633,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4648,7 +4649,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4657,7 +4658,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4666,12 +4667,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4680,7 +4681,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4689,23 +4690,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4722,7 +4723,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4733,7 +4734,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4746,7 +4747,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4756,23 +4757,23 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4789,7 +4790,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4806,7 +4807,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4817,7 +4818,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4830,7 +4831,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4867,44 +4868,44 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>67</v>
       </c>
@@ -4912,12 +4913,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4930,7 +4931,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4939,7 +4940,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4948,12 +4949,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4964,7 +4965,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4975,23 +4976,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -5008,7 +5009,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -5019,7 +5020,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -5032,7 +5033,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -5044,23 +5045,23 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5077,7 +5078,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5094,7 +5095,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5107,7 +5108,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5120,7 +5121,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5150,96 +5151,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" style="64" customWidth="1"/>
+    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="64" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" style="64" customWidth="1"/>
+    <col min="28" max="28" width="12.375" style="64" customWidth="1"/>
     <col min="29" max="29" width="13.5" style="64" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="64"/>
+    <col min="30" max="30" width="12.375" style="64" customWidth="1"/>
+    <col min="31" max="31" width="13.5" style="64" customWidth="1"/>
+    <col min="32" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="129" t="s">
+    <row r="1" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="127">
+      <c r="G1" s="127"/>
+      <c r="H1" s="126">
         <v>45170</v>
       </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="127">
+      <c r="I1" s="127"/>
+      <c r="J1" s="126">
         <v>45200</v>
       </c>
-      <c r="K1" s="128"/>
-      <c r="L1" s="127">
+      <c r="K1" s="127"/>
+      <c r="L1" s="126">
         <v>45231</v>
       </c>
-      <c r="M1" s="128"/>
-      <c r="N1" s="127">
+      <c r="M1" s="127"/>
+      <c r="N1" s="126">
         <v>45261</v>
       </c>
-      <c r="O1" s="128"/>
-      <c r="P1" s="127">
+      <c r="O1" s="127"/>
+      <c r="P1" s="126">
         <v>45292</v>
       </c>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="127">
+      <c r="Q1" s="127"/>
+      <c r="R1" s="126">
         <v>45323</v>
       </c>
-      <c r="S1" s="128"/>
-      <c r="T1" s="127">
+      <c r="S1" s="127"/>
+      <c r="T1" s="126">
         <v>45352</v>
       </c>
-      <c r="U1" s="128"/>
-      <c r="V1" s="127">
+      <c r="U1" s="127"/>
+      <c r="V1" s="126">
         <v>45383</v>
       </c>
-      <c r="W1" s="128"/>
-      <c r="X1" s="127">
+      <c r="W1" s="127"/>
+      <c r="X1" s="126">
         <v>45413</v>
       </c>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="127">
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="126">
         <v>45444</v>
       </c>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="127">
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="126">
         <v>45474</v>
       </c>
-      <c r="AC1" s="128"/>
-    </row>
-    <row r="2" spans="1:31" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="126">
+        <v>45505</v>
+      </c>
+      <c r="AE1" s="127"/>
+    </row>
+    <row r="2" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5318,8 +5325,14 @@
       <c r="AC2" s="80" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD2" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE2" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5381,9 +5394,12 @@
       <c r="AC3" s="82">
         <v>31667.119999999999</v>
       </c>
-      <c r="AE3" s="113"/>
-    </row>
-    <row r="4" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="82">
+        <v>31667.119999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5442,8 +5458,12 @@
       <c r="AC4" s="84">
         <v>31666.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="84">
+        <v>31666.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5502,8 +5522,12 @@
       <c r="AC5" s="84">
         <v>31667.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="84">
+        <v>31667.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5567,8 +5591,12 @@
       <c r="AC6" s="84">
         <v>162253.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="84">
+        <v>162253.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5633,8 +5661,12 @@
       <c r="AC7" s="86">
         <v>147561.76999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="86">
+        <v>147561.76999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5726,8 +5758,15 @@
         <f>SUM(AB3:AC7)</f>
         <v>404816.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD8" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE8" s="88">
+        <f>SUM(AD3:AE7)</f>
+        <v>404816.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5791,8 +5830,12 @@
       <c r="AC9" s="82">
         <v>59150.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="82">
+        <v>63700.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5858,8 +5901,12 @@
       <c r="AC10" s="84">
         <v>62400.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="84">
+        <v>67200.179999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5926,8 +5973,12 @@
       <c r="AC11" s="86">
         <v>59670.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="86">
+        <v>64260.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -6019,8 +6070,15 @@
         <f>SUM(AC9:AC11)</f>
         <v>181220.41999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE12" s="88">
+        <f>SUM(AE9:AE11)</f>
+        <v>195160.41999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -6106,8 +6164,14 @@
       <c r="AC13" s="93">
         <v>123800.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE13" s="93">
+        <v>123800.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6189,8 +6253,14 @@
       <c r="AC14" s="93">
         <v>76800.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD14" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE14" s="93">
+        <v>76800.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6272,8 +6342,14 @@
       <c r="AC15" s="90">
         <v>150000.01999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD15" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE15" s="90">
+        <v>150000.01999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6314,9 +6390,19 @@
         <f>AC15+AC14+AC13+AC12+AC8</f>
         <v>936636.87999999989</v>
       </c>
+      <c r="AE16" s="92">
+        <f>AE15+AE14+AE13+AE12+AE8</f>
+        <v>950576.87999999989</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
@@ -6324,11 +6410,6 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6338,19 +6419,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="108" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="109" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="109" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="108" customWidth="1"/>
     <col min="4" max="16384" width="11" style="108"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>167</v>
       </c>
@@ -6361,7 +6442,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
         <v>174</v>
       </c>
@@ -6373,7 +6454,7 @@
         <v>147561.76999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="110" t="s">
         <v>26</v>
       </c>
@@ -6384,7 +6465,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="s">
         <v>177</v>
       </c>
@@ -6395,7 +6476,7 @@
         <v>12950</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="110" t="s">
         <v>178</v>
       </c>
@@ -6406,7 +6487,7 @@
         <v>22631</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110" t="s">
         <v>164</v>
       </c>
@@ -6431,23 +6512,23 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6457,7 +6538,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
         <v>173</v>
       </c>
@@ -6483,7 +6564,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6512,7 +6593,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6531,7 +6612,7 @@
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6559,7 +6640,7 @@
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6590,7 +6671,7 @@
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6618,7 +6699,7 @@
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6651,7 +6732,7 @@
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6679,7 +6760,7 @@
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6707,7 +6788,7 @@
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6737,7 +6818,7 @@
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6767,7 +6848,7 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -6795,7 +6876,7 @@
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -6823,7 +6904,7 @@
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -6851,7 +6932,7 @@
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -6882,7 +6963,7 @@
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -6907,7 +6988,7 @@
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
         <v>164</v>
       </c>
@@ -6922,7 +7003,7 @@
       <c r="H18" s="70"/>
       <c r="I18" s="96"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="99" t="s">
         <v>167</v>
       </c>
@@ -6931,7 +7012,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="99" t="s">
         <v>174</v>
       </c>
@@ -6940,7 +7021,7 @@
         <v>81897.77</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="99" t="s">
         <v>15</v>
       </c>
@@ -6948,7 +7029,7 @@
         <v>783.84</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="99" t="s">
         <v>14</v>
       </c>
@@ -6956,7 +7037,7 @@
         <v>15649.9</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="99" t="s">
         <v>175</v>
       </c>
@@ -6964,7 +7045,7 @@
         <v>21866.68</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="99" t="s">
         <v>164</v>
       </c>
@@ -6987,16 +7068,16 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -7004,7 +7085,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -7025,7 +7106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>180</v>
       </c>
@@ -7050,7 +7131,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -7067,7 +7148,7 @@
       </c>
       <c r="G4" s="95"/>
     </row>
-    <row r="5" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>179</v>
       </c>
@@ -7090,7 +7171,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>179</v>
       </c>
@@ -7116,7 +7197,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>181</v>
       </c>
@@ -7139,7 +7220,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>182</v>
       </c>
@@ -7163,11 +7244,11 @@
         <f>+F8+Expensas!Z9</f>
         <v>204600</v>
       </c>
-      <c r="H8" s="115">
+      <c r="H8" s="114">
         <v>210000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>183</v>
       </c>
@@ -7189,12 +7270,12 @@
         <f>+F9+Expensas!Z10</f>
         <v>220600</v>
       </c>
-      <c r="H9" s="115">
+      <c r="H9" s="114">
         <v>225400</v>
       </c>
-      <c r="I9" s="114"/>
-    </row>
-    <row r="10" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="113"/>
+    </row>
+    <row r="10" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="s">
         <v>184</v>
       </c>
@@ -7216,12 +7297,12 @@
         <f>+F10+Expensas!Z11</f>
         <v>188080</v>
       </c>
-      <c r="H10" s="115">
+      <c r="H10" s="114">
         <f>+F10+Expensas!AC11</f>
         <v>192670.21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
         <v>185</v>
       </c>
@@ -7246,7 +7327,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7265,7 +7346,7 @@
       </c>
       <c r="G12" s="96"/>
     </row>
-    <row r="13" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7279,7 +7360,7 @@
       <c r="F13" s="100"/>
       <c r="G13" s="95"/>
     </row>
-    <row r="14" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7296,7 +7377,7 @@
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7313,7 +7394,7 @@
       </c>
       <c r="G15" s="95"/>
     </row>
-    <row r="16" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7331,7 +7412,7 @@
       <c r="G16" s="97"/>
       <c r="I16" s="94"/>
     </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7350,7 +7431,7 @@
       </c>
       <c r="G17" s="95"/>
     </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
         <v>164</v>
       </c>
@@ -7377,29 +7458,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="6" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7408,7 +7489,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -7416,7 +7497,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -7424,7 +7505,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -7432,7 +7513,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -7440,7 +7521,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -7448,7 +7529,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -7456,7 +7537,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -7467,7 +7548,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -7478,7 +7559,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -7489,7 +7570,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -7500,7 +7581,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -7511,7 +7592,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -7519,23 +7600,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -7555,41 +7636,41 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+    </row>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7597,41 +7678,41 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-    </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
+    </row>
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7643,7 +7724,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7651,7 +7732,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7661,7 +7742,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7673,16 +7754,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+    </row>
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7696,7 +7777,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7710,7 +7791,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -7722,7 +7803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7732,7 +7813,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7740,15 +7821,15 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7758,7 +7839,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7770,7 +7851,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7780,7 +7861,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7790,7 +7871,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7827,42 +7908,42 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+    </row>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7872,41 +7953,41 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-    </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
+    </row>
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7918,7 +7999,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7928,7 +8009,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7938,7 +8019,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7948,16 +8029,16 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+    </row>
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7971,7 +8052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7983,7 +8064,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7993,7 +8074,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8003,7 +8084,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8011,15 +8092,15 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8029,7 +8110,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8041,7 +8122,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8051,7 +8132,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8061,7 +8142,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8098,41 +8179,41 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8140,44 +8221,44 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8189,7 +8270,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8197,7 +8278,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8207,7 +8288,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8215,16 +8296,16 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+    </row>
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8238,7 +8319,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8250,7 +8331,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8260,7 +8341,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8270,7 +8351,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8278,15 +8359,15 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8300,7 +8381,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8312,7 +8393,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8322,7 +8403,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8332,7 +8413,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -8346,7 +8427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -8385,28 +8466,28 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="56" t="s">
         <v>125</v>
       </c>
@@ -8416,7 +8497,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -8426,14 +8507,14 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8446,7 +8527,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -8456,7 +8537,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8472,7 +8553,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8487,7 +8568,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8501,7 +8582,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -8512,7 +8593,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8520,7 +8601,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8529,25 +8610,25 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8563,7 +8644,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8577,7 +8658,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8591,7 +8672,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8602,25 +8683,25 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8638,7 +8719,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8654,7 +8735,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8668,7 +8749,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8682,7 +8763,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8691,19 +8772,19 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8718,7 +8799,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8731,7 +8812,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8742,7 +8823,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8753,7 +8834,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8790,46 +8871,46 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8838,13 +8919,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8856,7 +8937,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8866,7 +8947,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8876,13 +8957,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8892,7 +8973,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8902,25 +8983,25 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8934,7 +9015,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8946,7 +9027,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8958,7 +9039,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8969,25 +9050,25 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9005,7 +9086,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9021,7 +9102,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9035,7 +9116,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9049,7 +9130,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9058,19 +9139,19 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9081,7 +9162,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9094,7 +9175,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9105,7 +9186,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9114,7 +9195,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9151,41 +9232,41 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+    </row>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9193,41 +9274,41 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-    </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
+    </row>
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9237,7 +9318,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9245,7 +9326,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9253,7 +9334,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9263,16 +9344,16 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+    </row>
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9286,7 +9367,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9298,7 +9379,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9308,7 +9389,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9318,7 +9399,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9326,15 +9407,15 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9344,7 +9425,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9356,7 +9437,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9366,7 +9447,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9374,7 +9455,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9411,44 +9492,44 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9456,12 +9537,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9474,7 +9555,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -9485,7 +9566,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -9494,12 +9575,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9510,7 +9591,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9521,23 +9602,23 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9552,7 +9633,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9565,7 +9646,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9578,7 +9659,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9589,23 +9670,23 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -9622,7 +9703,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9639,7 +9720,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -9650,7 +9731,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9661,7 +9742,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9672,22 +9753,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E7CB444-360D-451C-B69C-A2FB5AFCF15C}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92C77E3D-E580-45CD-9F49-92A46E6ECFCE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-24870" yWindow="630" windowWidth="23205" windowHeight="13035" tabRatio="535" firstSheet="12" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="195">
   <si>
     <t>Fotographos</t>
   </si>
@@ -625,6 +625,30 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>stella</t>
+  </si>
+  <si>
+    <t>desocupado</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>Alquiler Agosto</t>
+  </si>
+  <si>
+    <t>Alquiler Septiembre</t>
+  </si>
+  <si>
+    <t>Expensas Agosto</t>
+  </si>
+  <si>
+    <t>Expensas Septiembre</t>
   </si>
 </sst>
 </file>
@@ -632,12 +656,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -751,6 +775,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1099,25 +1129,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1129,7 +1159,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,28 +1262,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1344,7 +1374,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1362,16 +1392,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1395,12 +1425,12 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,10 +1473,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1527,7 +1566,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1832,7 +1871,7 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
@@ -3670,7 +3709,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -3962,7 +4001,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4285,7 +4324,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4588,7 +4627,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4868,7 +4907,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -5151,12 +5190,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="topRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
@@ -5396,7 +5435,7 @@
       </c>
       <c r="AD3" s="81"/>
       <c r="AE3" s="82">
-        <v>31667.119999999999</v>
+        <v>27078.12</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5460,7 +5499,7 @@
       </c>
       <c r="AD4" s="83"/>
       <c r="AE4" s="84">
-        <v>31666.57</v>
+        <v>27077.57</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5524,7 +5563,7 @@
       </c>
       <c r="AD5" s="83"/>
       <c r="AE5" s="84">
-        <v>31667.05</v>
+        <v>27078.05</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5593,7 +5632,7 @@
       </c>
       <c r="AD6" s="83"/>
       <c r="AE6" s="84">
-        <v>162253.71</v>
+        <v>134230.71</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5663,7 +5702,7 @@
       </c>
       <c r="AD7" s="85"/>
       <c r="AE7" s="86">
-        <v>147561.76999999999</v>
+        <v>122061.77</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5763,7 +5802,7 @@
       </c>
       <c r="AE8" s="88">
         <f>SUM(AD3:AE7)</f>
-        <v>404816.22</v>
+        <v>337526.22000000003</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6168,7 +6207,7 @@
         <v>150</v>
       </c>
       <c r="AE13" s="93">
-        <v>123800.11</v>
+        <v>154750.10999999999</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6257,7 +6296,7 @@
         <v>150</v>
       </c>
       <c r="AE14" s="93">
-        <v>76800.11</v>
+        <v>76000.11</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6342,11 +6381,9 @@
       <c r="AC15" s="90">
         <v>150000.01999999999</v>
       </c>
-      <c r="AD15" s="89" t="s">
-        <v>150</v>
-      </c>
+      <c r="AD15" s="89"/>
       <c r="AE15" s="90">
-        <v>150000.01999999999</v>
+        <v>210000.02</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -6392,7 +6429,7 @@
       </c>
       <c r="AE16" s="92">
         <f>AE15+AE14+AE13+AE12+AE8</f>
-        <v>950576.87999999989</v>
+        <v>973436.87999999989</v>
       </c>
     </row>
   </sheetData>
@@ -6417,86 +6454,107 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="108" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="108" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="109" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="108" customWidth="1"/>
     <col min="4" max="16384" width="11" style="108"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="111" t="s">
+      <c r="A2" s="129" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C2" s="131">
         <v>267000</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="111" t="s">
+      <c r="A3" s="129" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="112">
-        <f>Expensas!AC7</f>
+      <c r="C3" s="131">
+        <v>267000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="131">
         <v>147561.76999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+    <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="131">
+        <v>122061.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B6" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="112">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+      <c r="C6" s="131">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B7" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="112">
-        <v>12950</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="C7" s="131">
+        <v>6801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B8" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="112">
-        <v>22631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="C8" s="131">
+        <v>26676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B9" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="112">
-        <f>SUM(C2:C6)</f>
-        <v>453225.77</v>
+      <c r="C9" s="112">
+        <f>SUM(C2:C8)</f>
+        <v>843124.54</v>
       </c>
     </row>
   </sheetData>
@@ -6512,7 +6570,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
@@ -7062,13 +7120,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3767BBE3-E496-124D-A78A-1321E9EF59D3}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -7077,7 +7135,7 @@
     <col min="7" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -7085,7 +7143,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -7105,8 +7163,14 @@
       <c r="H2" s="65" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>180</v>
       </c>
@@ -7130,8 +7194,11 @@
         <f>+F3+Expensas!Z3</f>
         <v>25000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -7147,8 +7214,9 @@
         <v>0</v>
       </c>
       <c r="G4" s="95"/>
-    </row>
-    <row r="5" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="114"/>
+    </row>
+    <row r="5" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>179</v>
       </c>
@@ -7170,8 +7238,9 @@
       <c r="H5" s="65">
         <v>25000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="114"/>
+    </row>
+    <row r="6" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>179</v>
       </c>
@@ -7196,8 +7265,11 @@
       <c r="H6" s="65">
         <v>179000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>181</v>
       </c>
@@ -7219,8 +7291,12 @@
         <f>+F7+Expensas!Z7</f>
         <v>267000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="65">
+        <v>453229</v>
+      </c>
+      <c r="I7" s="114"/>
+    </row>
+    <row r="8" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>182</v>
       </c>
@@ -7244,11 +7320,14 @@
         <f>+F8+Expensas!Z9</f>
         <v>204600</v>
       </c>
-      <c r="H8" s="114">
+      <c r="H8" s="113">
         <v>210000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>183</v>
       </c>
@@ -7270,12 +7349,17 @@
         <f>+F9+Expensas!Z10</f>
         <v>220600</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="113">
         <v>225400</v>
       </c>
-      <c r="I9" s="113"/>
-    </row>
-    <row r="10" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="114">
+        <v>230200</v>
+      </c>
+      <c r="J9" s="65">
+        <v>230200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="s">
         <v>184</v>
       </c>
@@ -7297,12 +7381,19 @@
         <f>+F10+Expensas!Z11</f>
         <v>188080</v>
       </c>
-      <c r="H10" s="114">
+      <c r="H10" s="113">
         <f>+F10+Expensas!AC11</f>
         <v>192670.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="114">
+        <v>217330</v>
+      </c>
+      <c r="J10" s="65">
+        <v>197260</v>
+      </c>
+      <c r="K10" s="94"/>
+    </row>
+    <row r="11" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
         <v>185</v>
       </c>
@@ -7326,8 +7417,14 @@
       <c r="H11" s="65">
         <v>130000</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="114">
+        <v>130000</v>
+      </c>
+      <c r="J11" s="65">
+        <v>255200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7345,8 +7442,14 @@
         <v>70000</v>
       </c>
       <c r="G12" s="96"/>
-    </row>
-    <row r="13" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="114">
+        <v>100000</v>
+      </c>
+      <c r="J12" s="65">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7359,8 +7462,11 @@
       </c>
       <c r="F13" s="100"/>
       <c r="G13" s="95"/>
-    </row>
-    <row r="14" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="114" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7376,8 +7482,11 @@
         <v>170000</v>
       </c>
       <c r="G14" s="95"/>
-    </row>
-    <row r="15" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="114">
+        <v>154286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7393,8 +7502,14 @@
         <v>150000</v>
       </c>
       <c r="G15" s="95"/>
-    </row>
-    <row r="16" spans="1:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="114">
+        <v>150000</v>
+      </c>
+      <c r="J15" s="65">
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7410,9 +7525,11 @@
         <v>134000</v>
       </c>
       <c r="G16" s="97"/>
-      <c r="I16" s="94"/>
-    </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7430,8 +7547,11 @@
         <v>290000</v>
       </c>
       <c r="G17" s="95"/>
-    </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="114">
+        <v>357703</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
         <v>164</v>
       </c>
@@ -7458,7 +7578,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
@@ -7473,7 +7593,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45540</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7636,7 +7756,7 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -7908,7 +8028,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8179,7 +8299,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8466,7 +8586,7 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8871,7 +8991,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9232,7 +9352,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9492,7 +9612,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD96611C-0122-7B45-95DF-C4926F1EB43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15680" windowHeight="16100" tabRatio="535" firstSheet="12" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15680" windowHeight="16100" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="187">
   <si>
     <t>Fotographos</t>
   </si>
@@ -1103,7 +1103,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1393,9 +1393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3688,11 +3685,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -3706,10 +3703,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -3782,12 +3779,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -3850,12 +3847,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -3977,11 +3974,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -3995,10 +3992,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4075,12 +4072,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4138,12 +4135,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4300,11 +4297,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4318,10 +4315,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4406,12 +4403,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4472,12 +4469,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4603,11 +4600,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4621,10 +4618,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4695,12 +4692,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4762,12 +4759,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4883,11 +4880,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4901,10 +4898,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>67</v>
       </c>
@@ -4981,12 +4978,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -5050,12 +5047,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -5150,9 +5147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5186,58 +5183,64 @@
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
     <col min="28" max="28" width="12.33203125" style="64" customWidth="1"/>
     <col min="29" max="29" width="13.5" style="64" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="64"/>
+    <col min="30" max="30" width="12.33203125" style="64" customWidth="1"/>
+    <col min="31" max="31" width="13.5" style="64" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="127">
+      <c r="G1" s="127"/>
+      <c r="H1" s="126">
         <v>45170</v>
       </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="127">
+      <c r="I1" s="127"/>
+      <c r="J1" s="126">
         <v>45200</v>
       </c>
-      <c r="K1" s="128"/>
-      <c r="L1" s="127">
+      <c r="K1" s="127"/>
+      <c r="L1" s="126">
         <v>45231</v>
       </c>
-      <c r="M1" s="128"/>
-      <c r="N1" s="127">
+      <c r="M1" s="127"/>
+      <c r="N1" s="126">
         <v>45261</v>
       </c>
-      <c r="O1" s="128"/>
-      <c r="P1" s="127">
+      <c r="O1" s="127"/>
+      <c r="P1" s="126">
         <v>45292</v>
       </c>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="127">
+      <c r="Q1" s="127"/>
+      <c r="R1" s="126">
         <v>45323</v>
       </c>
-      <c r="S1" s="128"/>
-      <c r="T1" s="127">
+      <c r="S1" s="127"/>
+      <c r="T1" s="126">
         <v>45352</v>
       </c>
-      <c r="U1" s="128"/>
-      <c r="V1" s="127">
+      <c r="U1" s="127"/>
+      <c r="V1" s="126">
         <v>45383</v>
       </c>
-      <c r="W1" s="128"/>
-      <c r="X1" s="127">
+      <c r="W1" s="127"/>
+      <c r="X1" s="126">
         <v>45413</v>
       </c>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="127">
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="126">
         <v>45444</v>
       </c>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="127">
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="126">
         <v>45474</v>
       </c>
-      <c r="AC1" s="128"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="126">
+        <v>45505</v>
+      </c>
+      <c r="AE1" s="127"/>
     </row>
     <row r="2" spans="1:31" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
@@ -5316,6 +5319,12 @@
         <v>148</v>
       </c>
       <c r="AC2" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD2" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE2" s="80" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5381,7 +5390,10 @@
       <c r="AC3" s="82">
         <v>31667.119999999999</v>
       </c>
-      <c r="AE3" s="113"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="82">
+        <v>35352.120000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
@@ -5442,6 +5454,10 @@
       <c r="AC4" s="84">
         <v>31666.57</v>
       </c>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="84">
+        <v>35351.57</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
@@ -5502,6 +5518,10 @@
       <c r="AC5" s="84">
         <v>31667.05</v>
       </c>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="84">
+        <v>35352.050000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72"/>
@@ -5567,6 +5587,10 @@
       <c r="AC6" s="84">
         <v>162253.71</v>
       </c>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="84">
+        <v>164371.71</v>
+      </c>
     </row>
     <row r="7" spans="1:31" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
@@ -5632,6 +5656,10 @@
       <c r="AB7" s="85"/>
       <c r="AC7" s="86">
         <v>147561.76999999999</v>
+      </c>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="86">
+        <v>149466.76999999999</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5726,6 +5754,13 @@
         <f>SUM(AB3:AC7)</f>
         <v>404816.22</v>
       </c>
+      <c r="AD8" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE8" s="88">
+        <f>SUM(AD3:AE7)</f>
+        <v>419894.22</v>
+      </c>
     </row>
     <row r="9" spans="1:31" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -5791,6 +5826,10 @@
       <c r="AC9" s="82">
         <v>59150.03</v>
       </c>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="82">
+        <v>63700.03</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
@@ -5858,6 +5897,10 @@
       <c r="AC10" s="84">
         <v>62400.18</v>
       </c>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="84">
+        <v>67200.179999999993</v>
+      </c>
     </row>
     <row r="11" spans="1:31" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
@@ -5925,6 +5968,10 @@
       <c r="AB11" s="85"/>
       <c r="AC11" s="86">
         <v>59670.21</v>
+      </c>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="86">
+        <v>64260.21</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6019,6 +6066,13 @@
         <f>SUM(AC9:AC11)</f>
         <v>181220.41999999998</v>
       </c>
+      <c r="AD12" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE12" s="88">
+        <f>SUM(AE9:AE11)</f>
+        <v>195160.41999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:31" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
@@ -6104,6 +6158,12 @@
         <v>150</v>
       </c>
       <c r="AC13" s="93">
+        <v>123800.11</v>
+      </c>
+      <c r="AD13" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE13" s="93">
         <v>123800.11</v>
       </c>
     </row>
@@ -6189,6 +6249,12 @@
       <c r="AC14" s="93">
         <v>76800.11</v>
       </c>
+      <c r="AD14" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE14" s="93">
+        <v>74000.11</v>
+      </c>
     </row>
     <row r="15" spans="1:31" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
@@ -6272,6 +6338,12 @@
       <c r="AC15" s="90">
         <v>150000.01999999999</v>
       </c>
+      <c r="AD15" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE15" s="90">
+        <v>130000.02</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="K16" s="92">
@@ -6314,9 +6386,19 @@
         <f>AC15+AC14+AC13+AC12+AC8</f>
         <v>936636.87999999989</v>
       </c>
+      <c r="AE16" s="92">
+        <f>AE15+AE14+AE13+AE12+AE8</f>
+        <v>942854.87999999989</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
@@ -6324,11 +6406,6 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6338,7 +6415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
@@ -7163,7 +7240,7 @@
         <f>+F8+Expensas!Z9</f>
         <v>204600</v>
       </c>
-      <c r="H8" s="115">
+      <c r="H8" s="114">
         <v>210000</v>
       </c>
     </row>
@@ -7189,10 +7266,10 @@
         <f>+F9+Expensas!Z10</f>
         <v>220600</v>
       </c>
-      <c r="H9" s="115">
+      <c r="H9" s="114">
         <v>225400</v>
       </c>
-      <c r="I9" s="114"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="1:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
@@ -7216,7 +7293,7 @@
         <f>+F10+Expensas!Z11</f>
         <v>188080</v>
       </c>
-      <c r="H10" s="115">
+      <c r="H10" s="114">
         <f>+F10+Expensas!AC11</f>
         <v>192670.21</v>
       </c>
@@ -7392,7 +7469,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45509</v>
+        <v>45522</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7569,21 +7646,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -7624,12 +7701,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -7675,12 +7752,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
@@ -7741,12 +7818,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -7842,21 +7919,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -7899,12 +7976,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -7950,12 +8027,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
@@ -8012,12 +8089,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -8112,21 +8189,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8167,12 +8244,12 @@
     </row>
     <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="18" t="s">
         <v>107</v>
       </c>
@@ -8217,12 +8294,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
@@ -8279,12 +8356,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -8402,11 +8479,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="56" t="s">
         <v>125</v>
       </c>
@@ -8430,10 +8507,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8536,12 +8613,12 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -8609,12 +8686,12 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -8695,12 +8772,12 @@
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8806,11 +8883,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -8826,10 +8903,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8909,12 +8986,12 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -8976,12 +9053,12 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -9062,12 +9139,12 @@
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9165,21 +9242,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9220,12 +9297,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -9265,12 +9342,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
@@ -9327,12 +9404,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -9427,11 +9504,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -9445,10 +9522,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9527,12 +9604,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -9595,12 +9672,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92C77E3D-E580-45CD-9F49-92A46E6ECFCE}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B00D6F0-4E54-4FD1-88FB-F55F91524B93}"/>
   <bookViews>
-    <workbookView xWindow="-24870" yWindow="630" windowWidth="23205" windowHeight="13035" tabRatio="535" firstSheet="12" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="195">
   <si>
     <t>Fotographos</t>
   </si>
@@ -656,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1129,25 +1129,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1159,7 +1159,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,28 +1262,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1374,7 +1374,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1392,16 +1392,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1410,8 +1410,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1431,6 +1431,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,19 +1482,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1566,7 +1566,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1871,7 +1871,7 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
@@ -3709,7 +3709,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -3728,11 +3728,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -3746,10 +3746,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -3822,12 +3822,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -3890,12 +3890,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4001,7 +4001,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4017,11 +4017,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4035,10 +4035,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4115,12 +4115,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4178,12 +4178,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4324,7 +4324,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4340,11 +4340,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4358,10 +4358,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4446,12 +4446,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4512,12 +4512,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4627,7 +4627,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4643,11 +4643,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4661,10 +4661,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4735,12 +4735,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4802,12 +4802,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4907,7 +4907,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4923,11 +4923,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4941,10 +4941,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>67</v>
       </c>
@@ -5021,12 +5021,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -5090,12 +5090,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -5188,14 +5188,14 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE7" sqref="AE7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
@@ -5228,64 +5228,70 @@
     <col min="29" max="29" width="13.5" style="64" customWidth="1"/>
     <col min="30" max="30" width="12.375" style="64" customWidth="1"/>
     <col min="31" max="31" width="13.5" style="64" customWidth="1"/>
-    <col min="32" max="16384" width="10.875" style="64"/>
+    <col min="32" max="32" width="12.375" style="64" customWidth="1"/>
+    <col min="33" max="33" width="13.5" style="64" customWidth="1"/>
+    <col min="34" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="128" t="s">
+    <row r="1" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="126">
+      <c r="G1" s="130"/>
+      <c r="H1" s="129">
         <v>45170</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="126">
+      <c r="I1" s="130"/>
+      <c r="J1" s="129">
         <v>45200</v>
       </c>
-      <c r="K1" s="127"/>
-      <c r="L1" s="126">
+      <c r="K1" s="130"/>
+      <c r="L1" s="129">
         <v>45231</v>
       </c>
-      <c r="M1" s="127"/>
-      <c r="N1" s="126">
+      <c r="M1" s="130"/>
+      <c r="N1" s="129">
         <v>45261</v>
       </c>
-      <c r="O1" s="127"/>
-      <c r="P1" s="126">
+      <c r="O1" s="130"/>
+      <c r="P1" s="129">
         <v>45292</v>
       </c>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="126">
+      <c r="Q1" s="130"/>
+      <c r="R1" s="129">
         <v>45323</v>
       </c>
-      <c r="S1" s="127"/>
-      <c r="T1" s="126">
+      <c r="S1" s="130"/>
+      <c r="T1" s="129">
         <v>45352</v>
       </c>
-      <c r="U1" s="127"/>
-      <c r="V1" s="126">
+      <c r="U1" s="130"/>
+      <c r="V1" s="129">
         <v>45383</v>
       </c>
-      <c r="W1" s="127"/>
-      <c r="X1" s="126">
+      <c r="W1" s="130"/>
+      <c r="X1" s="129">
         <v>45413</v>
       </c>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="126">
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="129">
         <v>45444</v>
       </c>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="126">
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="129">
         <v>45474</v>
       </c>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="126">
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="129">
         <v>45505</v>
       </c>
-      <c r="AE1" s="127"/>
-    </row>
-    <row r="2" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="129">
+        <v>45536</v>
+      </c>
+      <c r="AG1" s="130"/>
+    </row>
+    <row r="2" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5370,8 +5376,14 @@
       <c r="AE2" s="80" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF2" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG2" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5437,8 +5449,12 @@
       <c r="AE3" s="82">
         <v>27078.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="82">
+        <v>26335.119999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5501,8 +5517,12 @@
       <c r="AE4" s="84">
         <v>27077.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="84">
+        <v>26334.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5565,8 +5585,12 @@
       <c r="AE5" s="84">
         <v>27078.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="84">
+        <v>26335.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5634,8 +5658,12 @@
       <c r="AE6" s="84">
         <v>134230.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="84">
+        <v>146155.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5704,8 +5732,12 @@
       <c r="AE7" s="86">
         <v>122061.77</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="86">
+        <v>132912.76999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5804,8 +5836,15 @@
         <f>SUM(AD3:AE7)</f>
         <v>337526.22000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF8" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG8" s="88">
+        <f>SUM(AF3:AG7)</f>
+        <v>358073.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5873,8 +5912,10 @@
       <c r="AE9" s="82">
         <v>63700.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="82"/>
+    </row>
+    <row r="10" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5944,8 +5985,10 @@
       <c r="AE10" s="84">
         <v>67200.179999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="84"/>
+    </row>
+    <row r="11" spans="1:33" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -6016,8 +6059,10 @@
       <c r="AE11" s="86">
         <v>64260.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="86"/>
+    </row>
+    <row r="12" spans="1:33" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -6116,8 +6161,15 @@
         <f>SUM(AE9:AE11)</f>
         <v>195160.41999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF12" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG12" s="88">
+        <f>SUM(AG9:AG11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -6209,8 +6261,12 @@
       <c r="AE13" s="93">
         <v>154750.10999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF13" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG13" s="93"/>
+    </row>
+    <row r="14" spans="1:33" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6298,8 +6354,12 @@
       <c r="AE14" s="93">
         <v>76000.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF14" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG14" s="93"/>
+    </row>
+    <row r="15" spans="1:33" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6381,12 +6441,16 @@
       <c r="AC15" s="90">
         <v>150000.01999999999</v>
       </c>
-      <c r="AD15" s="89"/>
+      <c r="AD15" s="89" t="s">
+        <v>150</v>
+      </c>
       <c r="AE15" s="90">
         <v>210000.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="90"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6431,14 +6495,14 @@
         <f>AE15+AE14+AE13+AE12+AE8</f>
         <v>973436.87999999989</v>
       </c>
+      <c r="AG16" s="92">
+        <f>AG15+AG14+AG13+AG12+AG8</f>
+        <v>358073.22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
+  <mergeCells count="14">
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
@@ -6447,6 +6511,11 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6456,11 +6525,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.75" style="108" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="109" customWidth="1"/>
@@ -6469,79 +6538,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="131">
+      <c r="C2" s="117">
         <v>267000</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="131">
+      <c r="C3" s="117">
         <v>267000</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="131">
+      <c r="C4" s="117">
         <v>147561.76999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="117">
         <v>122061.77</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="131">
+      <c r="C6" s="117">
         <v>6024</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="117">
         <v>6801</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="131">
+      <c r="C8" s="117">
         <v>26676</v>
       </c>
     </row>
@@ -6570,7 +6639,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
@@ -7126,7 +7195,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -7578,7 +7647,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
@@ -7593,7 +7662,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45546</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7756,7 +7825,7 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -7770,21 +7839,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -7825,12 +7894,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -7876,12 +7945,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -7942,12 +8011,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="128"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
@@ -8028,7 +8097,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8043,21 +8112,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8100,12 +8169,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -8151,12 +8220,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -8213,12 +8282,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="128"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
@@ -8299,7 +8368,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8313,21 +8382,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8368,12 +8437,12 @@
     </row>
     <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="18" t="s">
         <v>107</v>
       </c>
@@ -8418,12 +8487,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -8480,12 +8549,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="128"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
@@ -8586,7 +8655,7 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8603,11 +8672,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="F2" s="56" t="s">
         <v>125</v>
       </c>
@@ -8631,10 +8700,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8737,12 +8806,12 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -8810,12 +8879,12 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -8896,12 +8965,12 @@
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="128"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8991,7 +9060,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9007,11 +9076,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -9027,10 +9096,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9110,12 +9179,12 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -9177,12 +9246,12 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -9263,12 +9332,12 @@
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="128"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9352,7 +9421,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9366,21 +9435,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9421,12 +9490,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -9466,12 +9535,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -9528,12 +9597,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="128"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
@@ -9612,7 +9681,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9628,11 +9697,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -9646,10 +9715,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9728,12 +9797,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -9796,12 +9865,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\OneDrive - YPF\Documentos\GitHub\Personal\PagoExpensas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B00D6F0-4E54-4FD1-88FB-F55F91524B93}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9010F942-2774-4B13-82D0-42CF408004DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
@@ -1561,10 +1561,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
@@ -5190,9 +5186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG8" sqref="AG8"/>
+      <selection pane="topRight" activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6357,7 +6353,9 @@
       <c r="AF14" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="AG14" s="93"/>
+      <c r="AG14" s="93">
+        <v>80000.11</v>
+      </c>
     </row>
     <row r="15" spans="1:33" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
@@ -6497,7 +6495,7 @@
       </c>
       <c r="AG16" s="92">
         <f>AG15+AG14+AG13+AG12+AG8</f>
-        <v>358073.22</v>
+        <v>438073.32999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7662,7 +7660,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45568</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\OneDrive - YPF\Documentos\GitHub\Personal\PagoExpensas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9010F942-2774-4B13-82D0-42CF408004DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{001218F5-8DEF-4B60-B3FF-80F77F3DC892}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView minimized="1" xWindow="-24690" yWindow="270" windowWidth="23190" windowHeight="15060" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="195">
   <si>
     <t>Fotographos</t>
   </si>
@@ -656,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1129,25 +1129,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1159,7 +1159,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,28 +1262,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1374,7 +1374,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1392,16 +1392,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1410,8 +1410,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1484,8 +1484,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1867,7 +1867,7 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
@@ -3705,7 +3705,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -3997,7 +3997,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4320,7 +4320,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4623,7 +4623,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -4903,7 +4903,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -5186,12 +5186,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG15" sqref="AG15"/>
+      <selection pane="topRight" activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
@@ -5909,7 +5909,9 @@
         <v>63700.03</v>
       </c>
       <c r="AF9" s="81"/>
-      <c r="AG9" s="82"/>
+      <c r="AG9" s="82">
+        <v>102375.03</v>
+      </c>
     </row>
     <row r="10" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
@@ -5982,7 +5984,9 @@
         <v>67200.179999999993</v>
       </c>
       <c r="AF10" s="83"/>
-      <c r="AG10" s="84"/>
+      <c r="AG10" s="84">
+        <v>108000.18</v>
+      </c>
     </row>
     <row r="11" spans="1:33" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
@@ -6056,7 +6060,9 @@
         <v>64260.21</v>
       </c>
       <c r="AF11" s="85"/>
-      <c r="AG11" s="86"/>
+      <c r="AG11" s="86">
+        <v>103275.21</v>
+      </c>
     </row>
     <row r="12" spans="1:33" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
@@ -6162,7 +6168,7 @@
       </c>
       <c r="AG12" s="88">
         <f>SUM(AG9:AG11)</f>
-        <v>0</v>
+        <v>313650.42</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6260,7 +6266,9 @@
       <c r="AF13" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="AG13" s="93"/>
+      <c r="AG13" s="93">
+        <v>154750.10999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:33" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
@@ -6445,8 +6453,12 @@
       <c r="AE15" s="90">
         <v>210000.02</v>
       </c>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="90"/>
+      <c r="AF15" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG15" s="90">
+        <v>212000.02</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
@@ -6495,7 +6507,7 @@
       </c>
       <c r="AG16" s="92">
         <f>AG15+AG14+AG13+AG12+AG8</f>
-        <v>438073.32999999996</v>
+        <v>1118473.8799999999</v>
       </c>
     </row>
   </sheetData>
@@ -6527,7 +6539,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.75" style="108" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="109" customWidth="1"/>
@@ -6637,7 +6649,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
@@ -7193,7 +7205,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -7645,7 +7657,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
@@ -7660,7 +7672,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45573</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7823,7 +7835,7 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8095,7 +8107,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8366,7 +8378,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -8653,7 +8665,7 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9058,7 +9070,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9419,7 +9431,7 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
@@ -9679,7 +9691,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="31" customWidth="1"/>

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{001218F5-8DEF-4B60-B3FF-80F77F3DC892}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-24690" yWindow="270" windowWidth="23190" windowHeight="15060" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView minimized="1" xWindow="1425" yWindow="0" windowWidth="19890" windowHeight="15060" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -1561,6 +1561,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5188,7 +5192,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH19" sqref="AH19"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7672,7 +7676,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45586</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/PagoExpensas/AlquileresApp.xlsx
+++ b/PagoExpensas/AlquileresApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{ADF947BF-DC70-A041-8195-95A24DAAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{001218F5-8DEF-4B60-B3FF-80F77F3DC892}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20C1311-08E6-CC43-B5A1-7992CC22F501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-24690" yWindow="270" windowWidth="23190" windowHeight="15060" tabRatio="535" firstSheet="12" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19580" windowHeight="16100" tabRatio="535" firstSheet="12" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="193">
   <si>
     <t>Fotographos</t>
   </si>
@@ -639,16 +639,10 @@
     <t>Sept</t>
   </si>
   <si>
-    <t>Alquiler Agosto</t>
-  </si>
-  <si>
-    <t>Alquiler Septiembre</t>
-  </si>
-  <si>
-    <t>Expensas Agosto</t>
-  </si>
-  <si>
-    <t>Expensas Septiembre</t>
+    <t>Expensas Octubre</t>
+  </si>
+  <si>
+    <t>Alquiler Octubre</t>
   </si>
 </sst>
 </file>
@@ -656,10 +650,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1131,23 +1125,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1159,7 +1153,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,26 +1256,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1374,7 +1368,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1392,16 +1386,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1410,8 +1404,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1867,21 +1861,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="16.375" customWidth="1"/>
-    <col min="17" max="17" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1895,7 +1889,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1935,7 +1929,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1977,7 +1971,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -2017,7 +2011,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -2057,7 +2051,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2097,7 +2091,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2137,7 +2131,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2181,7 +2175,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2225,7 +2219,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2269,7 +2263,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2313,7 +2307,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2358,7 +2352,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2402,7 +2396,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2446,7 +2440,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2491,7 +2485,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2536,7 +2530,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2581,7 +2575,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2626,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2676,7 +2670,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2726,7 +2720,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2774,7 +2768,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2822,7 +2816,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2868,7 +2862,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2914,7 +2908,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2960,7 +2954,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -3004,7 +2998,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -3048,7 +3042,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3093,7 +3087,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3138,7 +3132,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3183,7 +3177,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3227,7 +3221,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3271,7 +3265,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3316,7 +3310,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3361,7 +3355,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3394,7 +3388,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3424,7 +3418,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3444,7 +3438,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3464,7 +3458,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3482,7 +3476,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3500,7 +3494,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3516,7 +3510,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3532,7 +3526,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3548,7 +3542,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3564,7 +3558,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3580,7 +3574,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3596,7 +3590,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3612,7 +3606,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3628,7 +3622,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3644,7 +3638,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3660,7 +3654,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3676,7 +3670,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3705,22 +3699,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.125" style="31"/>
+    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3733,12 +3727,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3753,12 +3747,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3771,7 +3765,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3780,7 +3774,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3789,12 +3783,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3803,7 +3797,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3812,12 +3806,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
@@ -3828,7 +3822,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3845,7 +3839,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3858,7 +3852,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3869,7 +3863,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3880,12 +3874,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="126" t="s">
         <v>14</v>
       </c>
@@ -3896,7 +3890,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3913,7 +3907,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3924,7 +3918,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3933,7 +3927,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3944,7 +3938,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3955,22 +3949,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3997,19 +3991,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4022,12 +4016,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4042,12 +4036,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4060,7 +4054,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4069,7 +4063,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4078,12 +4072,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4094,7 +4088,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4105,12 +4099,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
@@ -4121,7 +4115,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4138,7 +4132,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4149,7 +4143,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4160,7 +4154,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4168,12 +4162,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="126" t="s">
         <v>47</v>
       </c>
@@ -4184,7 +4178,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4201,7 +4195,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4218,7 +4212,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4229,7 +4223,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4240,7 +4234,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4252,7 +4246,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4264,7 +4258,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4272,7 +4266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4280,7 +4274,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4288,7 +4282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4320,19 +4314,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4345,12 +4339,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4365,12 +4359,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4383,7 +4377,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4394,7 +4388,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4403,12 +4397,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4422,7 +4416,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4436,12 +4430,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="123" t="s">
         <v>129</v>
       </c>
@@ -4452,7 +4446,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4469,7 +4463,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4480,7 +4474,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4491,7 +4485,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4502,12 +4496,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="126" t="s">
         <v>54</v>
       </c>
@@ -4518,7 +4512,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4535,7 +4529,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4552,7 +4546,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4563,7 +4557,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4576,7 +4570,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4589,13 +4583,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4623,19 +4617,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4648,12 +4642,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4668,12 +4662,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4684,7 +4678,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4693,7 +4687,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4702,12 +4696,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4716,7 +4710,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4725,12 +4719,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
@@ -4741,7 +4735,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4758,7 +4752,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4769,7 +4763,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4782,7 +4776,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4792,12 +4786,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="126" t="s">
         <v>14</v>
       </c>
@@ -4808,7 +4802,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4825,7 +4819,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4842,7 +4836,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4853,7 +4847,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4866,7 +4860,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4903,19 +4897,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.125" style="31"/>
+    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4928,12 +4922,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4948,12 +4942,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4966,7 +4960,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4975,7 +4969,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4984,12 +4978,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -5000,7 +4994,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -5011,12 +5005,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="123" t="s">
         <v>26</v>
       </c>
@@ -5027,7 +5021,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -5044,7 +5038,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -5055,7 +5049,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -5068,7 +5062,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -5080,12 +5074,12 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="126" t="s">
         <v>14</v>
       </c>
@@ -5096,7 +5090,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5113,7 +5107,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5130,7 +5124,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5143,7 +5137,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5156,7 +5150,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5186,50 +5180,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH19" sqref="AH19"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="64" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
-    <col min="28" max="28" width="12.375" style="64" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" style="64" customWidth="1"/>
     <col min="29" max="29" width="13.5" style="64" customWidth="1"/>
-    <col min="30" max="30" width="12.375" style="64" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" style="64" customWidth="1"/>
     <col min="31" max="31" width="13.5" style="64" customWidth="1"/>
-    <col min="32" max="32" width="12.375" style="64" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" style="64" customWidth="1"/>
     <col min="33" max="33" width="13.5" style="64" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="64"/>
+    <col min="34" max="16384" width="10.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="131" t="s">
         <v>144</v>
       </c>
@@ -5287,7 +5281,7 @@
       </c>
       <c r="AG1" s="130"/>
     </row>
-    <row r="2" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5379,7 +5373,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5450,7 +5444,7 @@
         <v>26335.119999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5518,7 +5512,7 @@
         <v>26334.57</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5586,7 +5580,7 @@
         <v>26335.05</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5659,7 +5653,7 @@
         <v>146155.71</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5733,7 +5727,7 @@
         <v>132912.76999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5840,7 +5834,7 @@
         <v>358073.22</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5913,7 +5907,7 @@
         <v>102375.03</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5988,7 +5982,7 @@
         <v>108000.18</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -6064,7 +6058,7 @@
         <v>103275.21</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -6171,7 +6165,7 @@
         <v>313650.42</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -6270,7 +6264,7 @@
         <v>154750.10999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6365,7 +6359,7 @@
         <v>80000.11</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6460,7 +6454,7 @@
         <v>212000.02</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6533,107 +6527,85 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="108" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="109" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="109" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="108" customWidth="1"/>
     <col min="4" max="16384" width="11" style="108"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" s="116" t="s">
         <v>176</v>
       </c>
       <c r="C2" s="117">
-        <v>267000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+        <v>469000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="115" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="116" t="s">
         <v>176</v>
       </c>
       <c r="C3" s="117">
-        <v>267000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="115" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="B4" s="116" t="s">
         <v>176</v>
       </c>
       <c r="C4" s="117">
-        <v>147561.76999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="115" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B5" s="116" t="s">
         <v>176</v>
       </c>
       <c r="C5" s="117">
-        <v>122061.77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="115" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="B6" s="116" t="s">
         <v>176</v>
       </c>
       <c r="C6" s="117">
-        <v>6024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="116" t="s">
+        <v>29365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="117">
-        <v>6801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="117">
-        <v>26676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="112">
-        <f>SUM(C2:C8)</f>
-        <v>843124.54</v>
+      <c r="C7" s="112">
+        <f>SUM(C2:C6)</f>
+        <v>640414</v>
       </c>
     </row>
   </sheetData>
@@ -6649,23 +6621,23 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6675,7 +6647,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98" t="s">
         <v>173</v>
       </c>
@@ -6701,7 +6673,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6730,7 +6702,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6749,7 +6721,7 @@
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6777,7 +6749,7 @@
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6808,7 +6780,7 @@
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -6836,7 +6808,7 @@
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -6869,7 +6841,7 @@
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -6897,7 +6869,7 @@
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -6925,7 +6897,7 @@
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -6955,7 +6927,7 @@
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -6985,7 +6957,7 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7013,7 +6985,7 @@
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7041,7 +7013,7 @@
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7069,7 +7041,7 @@
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7100,7 +7072,7 @@
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7125,7 +7097,7 @@
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
         <v>164</v>
       </c>
@@ -7140,7 +7112,7 @@
       <c r="H18" s="70"/>
       <c r="I18" s="96"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="99" t="s">
         <v>167</v>
       </c>
@@ -7149,7 +7121,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="99" t="s">
         <v>174</v>
       </c>
@@ -7158,7 +7130,7 @@
         <v>81897.77</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="99" t="s">
         <v>15</v>
       </c>
@@ -7166,7 +7138,7 @@
         <v>783.84</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="99" t="s">
         <v>14</v>
       </c>
@@ -7174,7 +7146,7 @@
         <v>15649.9</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="99" t="s">
         <v>175</v>
       </c>
@@ -7182,7 +7154,7 @@
         <v>21866.68</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
         <v>164</v>
       </c>
@@ -7205,16 +7177,16 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -7222,7 +7194,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="1:11" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -7249,7 +7221,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="65" t="s">
         <v>180</v>
       </c>
@@ -7277,7 +7249,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -7295,7 +7267,7 @@
       <c r="G4" s="95"/>
       <c r="I4" s="114"/>
     </row>
-    <row r="5" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
         <v>179</v>
       </c>
@@ -7319,7 +7291,7 @@
       </c>
       <c r="I5" s="114"/>
     </row>
-    <row r="6" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="s">
         <v>179</v>
       </c>
@@ -7348,7 +7320,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>181</v>
       </c>
@@ -7375,7 +7347,7 @@
       </c>
       <c r="I7" s="114"/>
     </row>
-    <row r="8" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>182</v>
       </c>
@@ -7406,7 +7378,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>183</v>
       </c>
@@ -7438,7 +7410,7 @@
         <v>230200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>184</v>
       </c>
@@ -7472,7 +7444,7 @@
       </c>
       <c r="K10" s="94"/>
     </row>
-    <row r="11" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>185</v>
       </c>
@@ -7503,7 +7475,7 @@
         <v>255200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7528,7 +7500,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7545,7 +7517,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7565,7 +7537,7 @@
         <v>154286</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7588,7 +7560,7 @@
         <v>294000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7608,7 +7580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7630,7 +7602,7 @@
         <v>357703</v>
       </c>
     </row>
-    <row r="18" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="104" t="s">
         <v>164</v>
       </c>
@@ -7657,29 +7629,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="8"/>
+    <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-    